--- a/ZavrsniProjekat/Docs/TestData.xlsx
+++ b/ZavrsniProjekat/Docs/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="282">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -36,6 +36,9 @@
     <t xml:space="preserve">Automated</t>
   </si>
   <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smoke</t>
   </si>
   <si>
@@ -138,13 +141,7 @@
     <t xml:space="preserve">Verify that user can’t submit valid data when email with space in the local part</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in dd mmm yyyy format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in d mmm yyyy format</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify that user can submit with valid date in dd Month yyyy format</t>
+    <t xml:space="preserve">Verify that user can submit with manually added valid date in dd mmm yyyy format</t>
   </si>
   <si>
     <r>
@@ -154,7 +151,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Verify that user can </t>
+      <t xml:space="preserve">Verify that user can submit with </t>
     </r>
     <r>
       <rPr>
@@ -162,7 +159,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">submit with</t>
+      <t xml:space="preserve">manually added </t>
     </r>
     <r>
       <rPr>
@@ -171,7 +168,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> valid date in d Month yyyy format</t>
+      <t xml:space="preserve">valid date in d mmm yyyy format</t>
     </r>
   </si>
   <si>
@@ -182,7 +179,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Verify that user can </t>
+      <t xml:space="preserve"> Verify that user can submit with </t>
     </r>
     <r>
       <rPr>
@@ -190,7 +187,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">submit with</t>
+      <t xml:space="preserve">manually added </t>
     </r>
     <r>
       <rPr>
@@ -199,32 +196,288 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> valid date in Month d yyyy format</t>
+      <t xml:space="preserve">valid date in dd Month yyyy format</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in yyyy mmm d format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in yyyy mmm dd format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in yyyy Month d format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in yyyy Month dd format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in mmm yyyy dd format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in mmm yyyy d format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in Month yyyy dd format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can submit with valid date in Month yyyy d format</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in d Month yyyy format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in Month d yyyy format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in yyyy mmm d format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in yyyy mmm dd format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in yyyy Month d format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in yyyy Month dd format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in mmm yyyy dd format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in mmm yyyy d format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in Month yyyy dd format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify that user can submit with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manually added </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid date in Month yyyy d format</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Verify that user can’t enter date in dd mmm yy format</t>
@@ -722,7 +975,7 @@
     <t xml:space="preserve">Sports</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/mladenimac/Downloads/34576512.png</t>
+    <t xml:space="preserve">/home/mmladenovic/Downloads/Mladen.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Neka adresa broj 3</t>
@@ -761,7 +1014,7 @@
     <t xml:space="preserve">Reading</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/mladenimac//34576512.png</t>
+    <t xml:space="preserve">/home/mmladenovic/Mladen.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Gurgaon</t>
@@ -797,7 +1050,7 @@
     <t xml:space="preserve">Music</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/mladenimac/Downloads/34576512</t>
+    <t xml:space="preserve">/home/mmladenovic/Downloads/Mladen</t>
   </si>
   <si>
     <t xml:space="preserve">Uttar Pradesh</t>
@@ -863,6 +1116,9 @@
     <t xml:space="preserve">imeprezie@do*men.com</t>
   </si>
   <si>
+    <t xml:space="preserve">03 Oct 1995</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chemistry</t>
   </si>
   <si>
@@ -875,6 +1131,9 @@
     <t xml:space="preserve">imeprezime@domen.c*om</t>
   </si>
   <si>
+    <t xml:space="preserve">3 Oct 1995</t>
+  </si>
+  <si>
     <t xml:space="preserve">Computer Science</t>
   </si>
   <si>
@@ -890,6 +1149,9 @@
     <t xml:space="preserve">imeprezime@dom en.com</t>
   </si>
   <si>
+    <t xml:space="preserve">3 October 1995</t>
+  </si>
+  <si>
     <t xml:space="preserve">History</t>
   </si>
   <si>
@@ -899,41 +1161,63 @@
     <t xml:space="preserve">imeprezime@domen.c  om</t>
   </si>
   <si>
+    <t xml:space="preserve">October 3 1995</t>
+  </si>
+  <si>
     <t xml:space="preserve">Economics</t>
   </si>
   <si>
     <t xml:space="preserve">Imeprezime@domen.com</t>
   </si>
   <si>
+    <t xml:space="preserve">1995 Oct 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Civics</t>
   </si>
   <si>
     <t xml:space="preserve">ime3prezime@domen.com</t>
   </si>
   <si>
+    <t xml:space="preserve">1995 Oct 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hindi</t>
   </si>
   <si>
     <t xml:space="preserve">ime*prezime@domen.com</t>
   </si>
   <si>
+    <t xml:space="preserve">1995 October 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Commerce</t>
   </si>
   <si>
     <t xml:space="preserve">ime prezime@domen.com</t>
   </si>
   <si>
+    <t xml:space="preserve">1995 October 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 1995 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 1995 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1091,7 +1375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,6 +1400,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1128,7 +1416,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,11 +1424,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,7 +1436,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,7 +1448,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,7 +1464,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1192,7 +1476,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1212,7 +1496,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1220,7 +1504,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,15 +1524,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1261,7 +1541,50 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1376,14 +1699,17 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.96"/>
   </cols>
   <sheetData>
@@ -1400,22 +1726,29 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1425,14 +1758,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1442,14 +1779,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1459,16 +1800,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1478,14 +1823,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1495,14 +1844,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1512,14 +1865,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1529,14 +1886,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1546,14 +1907,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1563,14 +1928,18 @@
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1580,14 +1949,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1597,14 +1970,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1614,14 +1991,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1631,14 +2012,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1648,14 +2033,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1665,16 +2054,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1684,14 +2077,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1701,16 +2098,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1720,14 +2121,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1737,14 +2142,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1754,14 +2163,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1771,14 +2184,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1788,14 +2205,18 @@
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="6" t="s">
-        <v>30</v>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1805,14 +2226,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="6" t="s">
-        <v>31</v>
+      <c r="C25" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1822,8 +2247,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -1831,6 +2256,9 @@
       </c>
       <c r="E26" s="5" t="n">
         <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1839,14 +2267,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
+      <c r="C27" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1856,14 +2288,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="6" t="s">
-        <v>34</v>
+      <c r="C28" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1873,14 +2309,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="6" t="s">
-        <v>35</v>
+      <c r="C29" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1890,14 +2330,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="6" t="s">
-        <v>36</v>
+      <c r="C30" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1907,8 +2351,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
+      <c r="C31" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -1918,125 +2362,156 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="F31" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>38</v>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
+      <c r="F32" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
-        <v>39</v>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
+      <c r="F33" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
-        <v>40</v>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
+      <c r="F34" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
-        <v>41</v>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
+      <c r="F35" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="8"/>
-      <c r="C36" s="10" t="s">
-        <v>42</v>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
+      <c r="F36" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
+      <c r="F37" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
+      <c r="F38" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
+      <c r="F39" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
+      <c r="F40" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
+      <c r="F41" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>31</v>
-      </c>
       <c r="C46" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -2044,11 +2519,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>32</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -2056,11 +2528,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>33</v>
-      </c>
       <c r="C48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -2071,7 +2540,7 @@
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
       <c r="H65" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2100,9 +2569,20 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576 F1">
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2118,10 +2598,12 @@
   <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.54"/>
@@ -2133,7 +2615,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.15"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2141,28 +2623,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
@@ -2176,13 +2658,13 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -2192,13 +2674,13 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="24"/>
     </row>
@@ -2208,11 +2690,11 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="24"/>
     </row>
@@ -2222,11 +2704,11 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="24"/>
     </row>
@@ -2236,13 +2718,13 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="24"/>
     </row>
@@ -2252,13 +2734,13 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="24"/>
     </row>
@@ -2268,11 +2750,11 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -2282,13 +2764,13 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" s="24"/>
     </row>
@@ -2298,11 +2780,11 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="24"/>
     </row>
@@ -2310,7 +2792,7 @@
       <c r="A12" s="17"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
@@ -2324,13 +2806,13 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -2340,13 +2822,13 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="24"/>
     </row>
@@ -2356,11 +2838,11 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -2370,11 +2852,11 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -2384,13 +2866,13 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="24"/>
     </row>
@@ -2400,13 +2882,13 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2416,13 +2898,13 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="24"/>
     </row>
@@ -2432,11 +2914,11 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" s="24"/>
     </row>
@@ -2446,13 +2928,13 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="24"/>
     </row>
@@ -2462,11 +2944,11 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" s="24"/>
     </row>
@@ -2476,11 +2958,11 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" s="24"/>
     </row>
@@ -2490,13 +2972,13 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2506,11 +2988,11 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -2520,13 +3002,13 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -2536,13 +3018,13 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -2552,11 +3034,11 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28" s="24"/>
     </row>
@@ -2566,13 +3048,13 @@
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H29" s="24"/>
     </row>
@@ -2582,11 +3064,11 @@
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -2596,11 +3078,11 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H31" s="24"/>
     </row>
@@ -2610,11 +3092,11 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H32" s="24"/>
     </row>
@@ -2624,11 +3106,11 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" s="24"/>
     </row>
@@ -2638,11 +3120,11 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" s="24"/>
     </row>
@@ -2652,11 +3134,11 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H35" s="24"/>
     </row>
@@ -2666,13 +3148,13 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H36" s="24"/>
     </row>
@@ -2682,13 +3164,13 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H37" s="24"/>
     </row>
@@ -2698,11 +3180,11 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H38" s="24"/>
     </row>
@@ -2712,13 +3194,13 @@
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H39" s="24"/>
     </row>
@@ -2728,11 +3210,11 @@
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H40" s="24"/>
     </row>
@@ -2742,13 +3224,13 @@
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H41" s="24"/>
     </row>
@@ -2758,11 +3240,11 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H42" s="24"/>
     </row>
@@ -2770,7 +3252,7 @@
       <c r="A43" s="17"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="19"/>
@@ -2783,24 +3265,24 @@
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="19"/>
@@ -2814,13 +3296,13 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H46" s="24"/>
     </row>
@@ -2840,13 +3322,13 @@
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" s="24"/>
     </row>
@@ -2856,11 +3338,11 @@
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H49" s="24"/>
     </row>
@@ -2870,11 +3352,11 @@
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H50" s="24"/>
     </row>
@@ -2884,13 +3366,13 @@
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" s="24"/>
     </row>
@@ -2900,13 +3382,13 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" s="24"/>
     </row>
@@ -2916,11 +3398,11 @@
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" s="24"/>
     </row>
@@ -2930,13 +3412,13 @@
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" s="24"/>
     </row>
@@ -2946,11 +3428,11 @@
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" s="24"/>
     </row>
@@ -2958,7 +3440,7 @@
       <c r="A56" s="34"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="19"/>
@@ -2972,13 +3454,13 @@
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H57" s="24"/>
     </row>
@@ -2998,13 +3480,13 @@
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="24"/>
     </row>
@@ -3014,11 +3496,11 @@
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H60" s="24"/>
     </row>
@@ -3028,11 +3510,11 @@
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H61" s="24"/>
     </row>
@@ -3042,13 +3524,13 @@
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H62" s="24"/>
     </row>
@@ -3058,13 +3540,13 @@
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H63" s="24"/>
     </row>
@@ -3074,11 +3556,11 @@
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H64" s="24"/>
     </row>
@@ -3088,13 +3570,13 @@
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H65" s="24"/>
     </row>
@@ -3104,11 +3586,11 @@
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" s="24"/>
     </row>
@@ -3116,7 +3598,7 @@
       <c r="A67" s="34"/>
       <c r="B67" s="18"/>
       <c r="C67" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="19"/>
@@ -3130,13 +3612,13 @@
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H68" s="24"/>
     </row>
@@ -3156,13 +3638,13 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H70" s="24"/>
     </row>
@@ -3172,11 +3654,11 @@
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H71" s="24"/>
     </row>
@@ -3186,11 +3668,11 @@
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="24"/>
       <c r="G72" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H72" s="24"/>
     </row>
@@ -3200,13 +3682,13 @@
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H73" s="24"/>
     </row>
@@ -3216,13 +3698,13 @@
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H74" s="24"/>
     </row>
@@ -3232,11 +3714,11 @@
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H75" s="24"/>
     </row>
@@ -3246,13 +3728,13 @@
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H76" s="24"/>
     </row>
@@ -3262,11 +3744,11 @@
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
       <c r="E77" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H77" s="24"/>
     </row>
@@ -3274,7 +3756,7 @@
       <c r="A78" s="34"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="19"/>
@@ -3288,13 +3770,13 @@
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H79" s="24"/>
     </row>
@@ -3314,13 +3796,13 @@
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H81" s="24"/>
     </row>
@@ -3330,11 +3812,11 @@
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H82" s="24"/>
     </row>
@@ -3344,11 +3826,11 @@
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H83" s="24"/>
     </row>
@@ -3358,13 +3840,13 @@
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H84" s="24"/>
     </row>
@@ -3374,13 +3856,13 @@
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H85" s="24"/>
     </row>
@@ -3390,11 +3872,11 @@
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H86" s="24"/>
     </row>
@@ -3404,13 +3886,13 @@
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="E87" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H87" s="24"/>
     </row>
@@ -3420,11 +3902,11 @@
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H88" s="24"/>
     </row>
@@ -3432,7 +3914,7 @@
       <c r="A89" s="34"/>
       <c r="B89" s="18"/>
       <c r="C89" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="19"/>
@@ -3446,13 +3928,13 @@
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H90" s="24"/>
     </row>
@@ -3472,13 +3954,13 @@
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H92" s="24"/>
     </row>
@@ -3488,11 +3970,11 @@
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H93" s="24"/>
     </row>
@@ -3502,11 +3984,11 @@
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H94" s="24"/>
     </row>
@@ -3516,13 +3998,13 @@
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -3532,13 +4014,13 @@
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H96" s="24"/>
     </row>
@@ -3548,11 +4030,11 @@
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F97" s="24"/>
       <c r="G97" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H97" s="24"/>
     </row>
@@ -3562,13 +4044,13 @@
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -3578,11 +4060,11 @@
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H99" s="24"/>
     </row>
@@ -3590,7 +4072,7 @@
       <c r="A100" s="34"/>
       <c r="B100" s="18"/>
       <c r="C100" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="19"/>
@@ -3604,13 +4086,13 @@
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H101" s="24"/>
     </row>
@@ -3630,13 +4112,13 @@
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
       <c r="E103" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H103" s="24"/>
     </row>
@@ -3646,11 +4128,11 @@
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
       <c r="E104" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F104" s="24"/>
       <c r="G104" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H104" s="24"/>
     </row>
@@ -3660,11 +4142,11 @@
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H105" s="24"/>
     </row>
@@ -3674,13 +4156,13 @@
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
       <c r="E106" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H106" s="24"/>
     </row>
@@ -3690,13 +4172,13 @@
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H107" s="24"/>
     </row>
@@ -3706,11 +4188,11 @@
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H108" s="24"/>
     </row>
@@ -3720,13 +4202,13 @@
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H109" s="24"/>
     </row>
@@ -3736,11 +4218,11 @@
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
       <c r="E110" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H110" s="24"/>
     </row>
@@ -3748,7 +4230,7 @@
       <c r="A111" s="34"/>
       <c r="B111" s="18"/>
       <c r="C111" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="19"/>
@@ -3762,13 +4244,13 @@
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
       <c r="E112" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H112" s="24"/>
     </row>
@@ -3788,13 +4270,13 @@
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
       <c r="E114" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H114" s="24"/>
     </row>
@@ -3804,11 +4286,11 @@
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
       <c r="E115" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H115" s="24"/>
     </row>
@@ -3818,11 +4300,11 @@
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
       <c r="E116" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H116" s="24"/>
     </row>
@@ -3832,13 +4314,13 @@
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
       <c r="E117" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H117" s="24"/>
     </row>
@@ -3848,13 +4330,13 @@
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
       <c r="E118" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H118" s="24"/>
     </row>
@@ -3864,11 +4346,11 @@
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
       <c r="E119" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F119" s="24"/>
       <c r="G119" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H119" s="24"/>
     </row>
@@ -3878,13 +4360,13 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H120" s="24"/>
     </row>
@@ -3894,11 +4376,11 @@
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
       <c r="E121" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F121" s="24"/>
       <c r="G121" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H121" s="24"/>
     </row>
@@ -3906,7 +4388,7 @@
       <c r="A122" s="34"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="19"/>
@@ -3920,13 +4402,13 @@
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
       <c r="E123" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H123" s="24"/>
     </row>
@@ -3946,13 +4428,13 @@
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
       <c r="E125" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H125" s="24"/>
     </row>
@@ -3962,11 +4444,11 @@
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
       <c r="E126" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F126" s="24"/>
       <c r="G126" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H126" s="24"/>
     </row>
@@ -3976,11 +4458,11 @@
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
       <c r="E127" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F127" s="24"/>
       <c r="G127" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H127" s="24"/>
     </row>
@@ -3990,13 +4472,13 @@
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
       <c r="E128" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H128" s="24"/>
     </row>
@@ -4006,13 +4488,13 @@
       <c r="C129" s="22"/>
       <c r="D129" s="22"/>
       <c r="E129" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H129" s="24"/>
     </row>
@@ -4022,11 +4504,11 @@
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
       <c r="E130" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F130" s="24"/>
       <c r="G130" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H130" s="24"/>
     </row>
@@ -4036,13 +4518,13 @@
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
       <c r="E131" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H131" s="24"/>
     </row>
@@ -4052,11 +4534,11 @@
       <c r="C132" s="22"/>
       <c r="D132" s="22"/>
       <c r="E132" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H132" s="24"/>
     </row>
@@ -4064,7 +4546,7 @@
       <c r="A133" s="34"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="19"/>
@@ -4078,13 +4560,13 @@
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
       <c r="E134" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G134" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H134" s="24"/>
     </row>
@@ -4104,13 +4586,13 @@
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
       <c r="E136" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H136" s="24"/>
     </row>
@@ -4120,11 +4602,11 @@
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
       <c r="E137" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F137" s="24"/>
       <c r="G137" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H137" s="24"/>
     </row>
@@ -4134,11 +4616,11 @@
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
       <c r="E138" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F138" s="24"/>
       <c r="G138" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H138" s="24"/>
     </row>
@@ -4148,13 +4630,13 @@
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
       <c r="E139" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H139" s="24"/>
     </row>
@@ -4164,13 +4646,13 @@
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
       <c r="E140" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G140" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H140" s="24"/>
     </row>
@@ -4180,11 +4662,11 @@
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
       <c r="E141" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F141" s="24"/>
       <c r="G141" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H141" s="24"/>
     </row>
@@ -4194,13 +4676,13 @@
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
       <c r="E142" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G142" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H142" s="24"/>
     </row>
@@ -4210,11 +4692,11 @@
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
       <c r="E143" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F143" s="24"/>
       <c r="G143" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H143" s="24"/>
     </row>
@@ -4222,7 +4704,7 @@
       <c r="A144" s="34"/>
       <c r="B144" s="18"/>
       <c r="C144" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144" s="20"/>
       <c r="E144" s="19"/>
@@ -4236,13 +4718,13 @@
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
       <c r="E145" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G145" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H145" s="24"/>
     </row>
@@ -4262,13 +4744,13 @@
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
       <c r="E147" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G147" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H147" s="24"/>
     </row>
@@ -4278,11 +4760,11 @@
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F148" s="24"/>
       <c r="G148" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H148" s="24"/>
     </row>
@@ -4292,11 +4774,11 @@
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
       <c r="E149" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F149" s="24"/>
       <c r="G149" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H149" s="24"/>
     </row>
@@ -4306,13 +4788,13 @@
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G150" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H150" s="24"/>
     </row>
@@ -4322,13 +4804,13 @@
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
       <c r="E151" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G151" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H151" s="24"/>
     </row>
@@ -4338,11 +4820,11 @@
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
       <c r="E152" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H152" s="24"/>
     </row>
@@ -4352,13 +4834,13 @@
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
       <c r="E153" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G153" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H153" s="24"/>
     </row>
@@ -4368,11 +4850,11 @@
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
       <c r="E154" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H154" s="24"/>
     </row>
@@ -4380,7 +4862,7 @@
       <c r="A155" s="34"/>
       <c r="B155" s="18"/>
       <c r="C155" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155" s="20"/>
       <c r="E155" s="19"/>
@@ -4394,13 +4876,13 @@
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
       <c r="E156" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G156" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H156" s="24"/>
     </row>
@@ -4420,13 +4902,13 @@
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
       <c r="E158" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H158" s="24"/>
     </row>
@@ -4436,11 +4918,11 @@
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
       <c r="E159" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H159" s="24"/>
     </row>
@@ -4450,11 +4932,11 @@
       <c r="C160" s="22"/>
       <c r="D160" s="22"/>
       <c r="E160" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F160" s="24"/>
       <c r="G160" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H160" s="24"/>
     </row>
@@ -4464,13 +4946,13 @@
       <c r="C161" s="22"/>
       <c r="D161" s="22"/>
       <c r="E161" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H161" s="24"/>
     </row>
@@ -4480,13 +4962,13 @@
       <c r="C162" s="22"/>
       <c r="D162" s="22"/>
       <c r="E162" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H162" s="24"/>
     </row>
@@ -4496,11 +4978,11 @@
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
       <c r="E163" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F163" s="24"/>
       <c r="G163" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H163" s="24"/>
     </row>
@@ -4510,13 +4992,13 @@
       <c r="C164" s="22"/>
       <c r="D164" s="22"/>
       <c r="E164" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H164" s="24"/>
     </row>
@@ -4526,11 +5008,11 @@
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
       <c r="E165" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F165" s="24"/>
       <c r="G165" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H165" s="24"/>
     </row>
@@ -4538,7 +5020,7 @@
       <c r="A166" s="34"/>
       <c r="B166" s="18"/>
       <c r="C166" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D166" s="20"/>
       <c r="E166" s="19"/>
@@ -4552,13 +5034,13 @@
       <c r="C167" s="22"/>
       <c r="D167" s="22"/>
       <c r="E167" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H167" s="24"/>
     </row>
@@ -4578,13 +5060,13 @@
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
       <c r="E169" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H169" s="24"/>
     </row>
@@ -4594,11 +5076,11 @@
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
       <c r="E170" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F170" s="24"/>
       <c r="G170" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H170" s="24"/>
     </row>
@@ -4608,11 +5090,11 @@
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
       <c r="E171" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F171" s="24"/>
       <c r="G171" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H171" s="24"/>
     </row>
@@ -4622,13 +5104,13 @@
       <c r="C172" s="22"/>
       <c r="D172" s="22"/>
       <c r="E172" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G172" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H172" s="24"/>
     </row>
@@ -4638,13 +5120,13 @@
       <c r="C173" s="22"/>
       <c r="D173" s="22"/>
       <c r="E173" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G173" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H173" s="24"/>
     </row>
@@ -4654,11 +5136,11 @@
       <c r="C174" s="22"/>
       <c r="D174" s="22"/>
       <c r="E174" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F174" s="24"/>
       <c r="G174" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H174" s="24"/>
     </row>
@@ -4668,13 +5150,13 @@
       <c r="C175" s="22"/>
       <c r="D175" s="22"/>
       <c r="E175" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F175" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G175" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H175" s="24"/>
     </row>
@@ -4684,21 +5166,21 @@
       <c r="C176" s="22"/>
       <c r="D176" s="22"/>
       <c r="E176" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F176" s="24"/>
       <c r="G176" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H176" s="24"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D177" s="20"/>
       <c r="E177" s="19"/>
@@ -4712,13 +5194,13 @@
       <c r="C178" s="22"/>
       <c r="D178" s="22"/>
       <c r="E178" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G178" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H178" s="24"/>
     </row>
@@ -4728,13 +5210,13 @@
       <c r="C179" s="22"/>
       <c r="D179" s="22"/>
       <c r="E179" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G179" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H179" s="24"/>
     </row>
@@ -4744,11 +5226,11 @@
       <c r="C180" s="22"/>
       <c r="D180" s="22"/>
       <c r="E180" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F180" s="24"/>
       <c r="G180" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H180" s="24"/>
     </row>
@@ -4758,11 +5240,11 @@
       <c r="C181" s="22"/>
       <c r="D181" s="22"/>
       <c r="E181" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F181" s="24"/>
       <c r="G181" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H181" s="24"/>
     </row>
@@ -4772,13 +5254,13 @@
       <c r="C182" s="22"/>
       <c r="D182" s="22"/>
       <c r="E182" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G182" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H182" s="24"/>
     </row>
@@ -4788,13 +5270,13 @@
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
       <c r="E183" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G183" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H183" s="24"/>
     </row>
@@ -4804,11 +5286,11 @@
       <c r="C184" s="22"/>
       <c r="D184" s="22"/>
       <c r="E184" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F184" s="24"/>
       <c r="G184" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H184" s="24"/>
     </row>
@@ -4818,13 +5300,13 @@
       <c r="C185" s="22"/>
       <c r="D185" s="22"/>
       <c r="E185" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G185" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H185" s="24"/>
     </row>
@@ -4834,11 +5316,11 @@
       <c r="C186" s="22"/>
       <c r="D186" s="22"/>
       <c r="E186" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F186" s="24"/>
       <c r="G186" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H186" s="24"/>
     </row>
@@ -4846,7 +5328,7 @@
       <c r="A187" s="17"/>
       <c r="B187" s="18"/>
       <c r="C187" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D187" s="20"/>
       <c r="E187" s="19"/>
@@ -4860,13 +5342,13 @@
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
       <c r="E188" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G188" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H188" s="24"/>
     </row>
@@ -4876,13 +5358,13 @@
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
       <c r="E189" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G189" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H189" s="24"/>
     </row>
@@ -4892,11 +5374,11 @@
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
       <c r="E190" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F190" s="24"/>
       <c r="G190" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H190" s="24"/>
     </row>
@@ -4906,11 +5388,11 @@
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
       <c r="E191" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F191" s="24"/>
       <c r="G191" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H191" s="24"/>
     </row>
@@ -4920,13 +5402,13 @@
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
       <c r="E192" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G192" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H192" s="24"/>
     </row>
@@ -4936,13 +5418,13 @@
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
       <c r="E193" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G193" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H193" s="24"/>
     </row>
@@ -4952,11 +5434,11 @@
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
       <c r="E194" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F194" s="24"/>
       <c r="G194" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H194" s="24"/>
     </row>
@@ -4966,13 +5448,13 @@
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
       <c r="E195" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G195" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H195" s="24"/>
     </row>
@@ -4982,21 +5464,21 @@
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
       <c r="E196" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F196" s="24"/>
       <c r="G196" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H196" s="24"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B197" s="18"/>
       <c r="C197" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D197" s="20"/>
       <c r="E197" s="19"/>
@@ -5010,13 +5492,13 @@
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
       <c r="E198" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G198" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H198" s="24"/>
     </row>
@@ -5026,13 +5508,13 @@
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
       <c r="E199" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G199" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H199" s="24"/>
     </row>
@@ -5042,11 +5524,11 @@
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
       <c r="E200" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F200" s="24"/>
       <c r="G200" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H200" s="24"/>
     </row>
@@ -5056,11 +5538,11 @@
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
       <c r="E201" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F201" s="24"/>
       <c r="G201" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H201" s="24"/>
     </row>
@@ -5070,13 +5552,13 @@
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
       <c r="E202" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G202" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H202" s="24"/>
     </row>
@@ -5086,13 +5568,13 @@
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
       <c r="E203" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G203" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H203" s="24"/>
     </row>
@@ -5102,13 +5584,13 @@
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
       <c r="E204" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F204" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G204" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H204" s="24"/>
     </row>
@@ -5118,11 +5600,11 @@
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
       <c r="E205" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F205" s="24"/>
       <c r="G205" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H205" s="24"/>
     </row>
@@ -5132,13 +5614,13 @@
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
       <c r="E206" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G206" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H206" s="24"/>
     </row>
@@ -5148,11 +5630,11 @@
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
       <c r="E207" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F207" s="24"/>
       <c r="G207" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H207" s="24"/>
     </row>
@@ -5160,7 +5642,7 @@
       <c r="A208" s="34"/>
       <c r="B208" s="18"/>
       <c r="C208" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D208" s="20"/>
       <c r="E208" s="19"/>
@@ -5174,13 +5656,13 @@
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
       <c r="E209" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G209" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H209" s="24"/>
     </row>
@@ -5190,13 +5672,13 @@
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
       <c r="E210" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G210" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H210" s="24"/>
     </row>
@@ -5206,11 +5688,11 @@
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
       <c r="E211" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F211" s="24"/>
       <c r="G211" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H211" s="24"/>
     </row>
@@ -5220,11 +5702,11 @@
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
       <c r="E212" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F212" s="24"/>
       <c r="G212" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H212" s="24"/>
     </row>
@@ -5234,13 +5716,13 @@
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
       <c r="E213" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F213" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G213" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H213" s="24"/>
     </row>
@@ -5250,13 +5732,13 @@
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
       <c r="E214" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F214" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G214" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H214" s="24"/>
     </row>
@@ -5266,13 +5748,13 @@
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
       <c r="E215" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G215" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H215" s="24"/>
     </row>
@@ -5282,11 +5764,11 @@
       <c r="C216" s="22"/>
       <c r="D216" s="22"/>
       <c r="E216" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F216" s="24"/>
       <c r="G216" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H216" s="24"/>
     </row>
@@ -5296,13 +5778,13 @@
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
       <c r="E217" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G217" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H217" s="24"/>
     </row>
@@ -5312,11 +5794,11 @@
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
       <c r="E218" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F218" s="24"/>
       <c r="G218" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H218" s="24"/>
     </row>
@@ -5324,7 +5806,7 @@
       <c r="A219" s="34"/>
       <c r="B219" s="18"/>
       <c r="C219" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="20"/>
       <c r="E219" s="19"/>
@@ -5338,13 +5820,13 @@
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
       <c r="E220" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F220" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G220" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H220" s="24"/>
     </row>
@@ -5354,13 +5836,13 @@
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
       <c r="E221" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F221" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G221" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H221" s="24"/>
     </row>
@@ -5370,11 +5852,11 @@
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
       <c r="E222" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F222" s="24"/>
       <c r="G222" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H222" s="24"/>
     </row>
@@ -5384,11 +5866,11 @@
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
       <c r="E223" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F223" s="24"/>
       <c r="G223" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H223" s="24"/>
     </row>
@@ -5398,13 +5880,13 @@
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
       <c r="E224" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F224" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G224" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H224" s="24"/>
     </row>
@@ -5414,13 +5896,13 @@
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
       <c r="E225" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G225" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H225" s="24"/>
     </row>
@@ -5430,13 +5912,13 @@
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
       <c r="E226" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H226" s="24"/>
     </row>
@@ -5446,11 +5928,11 @@
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
       <c r="E227" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F227" s="24"/>
       <c r="G227" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H227" s="24"/>
     </row>
@@ -5460,13 +5942,13 @@
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
       <c r="E228" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F228" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G228" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H228" s="24"/>
     </row>
@@ -5476,11 +5958,11 @@
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
       <c r="E229" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F229" s="24"/>
       <c r="G229" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H229" s="24"/>
     </row>
@@ -5488,7 +5970,7 @@
       <c r="A230" s="34"/>
       <c r="B230" s="18"/>
       <c r="C230" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D230" s="20"/>
       <c r="E230" s="19"/>
@@ -5502,13 +5984,13 @@
       <c r="C231" s="22"/>
       <c r="D231" s="22"/>
       <c r="E231" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G231" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H231" s="24"/>
     </row>
@@ -5518,13 +6000,13 @@
       <c r="C232" s="22"/>
       <c r="D232" s="22"/>
       <c r="E232" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G232" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H232" s="24"/>
     </row>
@@ -5534,11 +6016,11 @@
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
       <c r="E233" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F233" s="24"/>
       <c r="G233" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H233" s="24"/>
     </row>
@@ -5548,11 +6030,11 @@
       <c r="C234" s="22"/>
       <c r="D234" s="22"/>
       <c r="E234" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F234" s="24"/>
       <c r="G234" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H234" s="24"/>
     </row>
@@ -5562,13 +6044,13 @@
       <c r="C235" s="22"/>
       <c r="D235" s="22"/>
       <c r="E235" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G235" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H235" s="24"/>
     </row>
@@ -5578,13 +6060,13 @@
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
       <c r="E236" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F236" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G236" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H236" s="24"/>
     </row>
@@ -5594,13 +6076,13 @@
       <c r="C237" s="22"/>
       <c r="D237" s="22"/>
       <c r="E237" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F237" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G237" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H237" s="24"/>
     </row>
@@ -5610,11 +6092,11 @@
       <c r="C238" s="22"/>
       <c r="D238" s="22"/>
       <c r="E238" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F238" s="24"/>
       <c r="G238" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H238" s="24"/>
     </row>
@@ -5624,13 +6106,13 @@
       <c r="C239" s="22"/>
       <c r="D239" s="22"/>
       <c r="E239" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G239" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H239" s="24"/>
     </row>
@@ -5640,11 +6122,11 @@
       <c r="C240" s="22"/>
       <c r="D240" s="22"/>
       <c r="E240" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F240" s="24"/>
       <c r="G240" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H240" s="24"/>
     </row>
@@ -5652,7 +6134,7 @@
       <c r="A241" s="34"/>
       <c r="B241" s="18"/>
       <c r="C241" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D241" s="20"/>
       <c r="E241" s="19"/>
@@ -5666,13 +6148,13 @@
       <c r="C242" s="22"/>
       <c r="D242" s="22"/>
       <c r="E242" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G242" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H242" s="24"/>
     </row>
@@ -5682,13 +6164,13 @@
       <c r="C243" s="22"/>
       <c r="D243" s="22"/>
       <c r="E243" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G243" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H243" s="24"/>
     </row>
@@ -5698,11 +6180,11 @@
       <c r="C244" s="22"/>
       <c r="D244" s="22"/>
       <c r="E244" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F244" s="24"/>
       <c r="G244" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H244" s="24"/>
     </row>
@@ -5712,11 +6194,11 @@
       <c r="C245" s="22"/>
       <c r="D245" s="22"/>
       <c r="E245" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F245" s="24"/>
       <c r="G245" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H245" s="24"/>
     </row>
@@ -5726,13 +6208,13 @@
       <c r="C246" s="22"/>
       <c r="D246" s="22"/>
       <c r="E246" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F246" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G246" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H246" s="24"/>
     </row>
@@ -5742,13 +6224,13 @@
       <c r="C247" s="22"/>
       <c r="D247" s="22"/>
       <c r="E247" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G247" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H247" s="24"/>
     </row>
@@ -5758,13 +6240,13 @@
       <c r="C248" s="22"/>
       <c r="D248" s="22"/>
       <c r="E248" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F248" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G248" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H248" s="24"/>
     </row>
@@ -5774,11 +6256,11 @@
       <c r="C249" s="22"/>
       <c r="D249" s="22"/>
       <c r="E249" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F249" s="24"/>
       <c r="G249" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H249" s="24"/>
     </row>
@@ -5788,13 +6270,13 @@
       <c r="C250" s="22"/>
       <c r="D250" s="22"/>
       <c r="E250" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G250" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H250" s="24"/>
     </row>
@@ -5804,11 +6286,11 @@
       <c r="C251" s="22"/>
       <c r="D251" s="22"/>
       <c r="E251" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F251" s="24"/>
       <c r="G251" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H251" s="24"/>
     </row>
@@ -5816,7 +6298,7 @@
       <c r="A252" s="34"/>
       <c r="B252" s="18"/>
       <c r="C252" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D252" s="20"/>
       <c r="E252" s="19"/>
@@ -5830,13 +6312,13 @@
       <c r="C253" s="22"/>
       <c r="D253" s="22"/>
       <c r="E253" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H253" s="24"/>
     </row>
@@ -5846,13 +6328,13 @@
       <c r="C254" s="22"/>
       <c r="D254" s="22"/>
       <c r="E254" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F254" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G254" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H254" s="24"/>
     </row>
@@ -5862,11 +6344,11 @@
       <c r="C255" s="22"/>
       <c r="D255" s="22"/>
       <c r="E255" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F255" s="24"/>
       <c r="G255" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H255" s="24"/>
     </row>
@@ -5876,11 +6358,11 @@
       <c r="C256" s="22"/>
       <c r="D256" s="22"/>
       <c r="E256" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F256" s="24"/>
       <c r="G256" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H256" s="24"/>
     </row>
@@ -5890,13 +6372,13 @@
       <c r="C257" s="22"/>
       <c r="D257" s="22"/>
       <c r="E257" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F257" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G257" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H257" s="24"/>
     </row>
@@ -5906,13 +6388,13 @@
       <c r="C258" s="22"/>
       <c r="D258" s="22"/>
       <c r="E258" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F258" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G258" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H258" s="24"/>
     </row>
@@ -5922,13 +6404,13 @@
       <c r="C259" s="22"/>
       <c r="D259" s="22"/>
       <c r="E259" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F259" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G259" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H259" s="24"/>
     </row>
@@ -5938,11 +6420,11 @@
       <c r="C260" s="22"/>
       <c r="D260" s="22"/>
       <c r="E260" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F260" s="24"/>
       <c r="G260" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H260" s="24"/>
     </row>
@@ -5952,13 +6434,13 @@
       <c r="C261" s="22"/>
       <c r="D261" s="22"/>
       <c r="E261" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G261" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H261" s="24"/>
     </row>
@@ -5968,11 +6450,11 @@
       <c r="C262" s="22"/>
       <c r="D262" s="22"/>
       <c r="E262" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F262" s="24"/>
       <c r="G262" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H262" s="24"/>
     </row>
@@ -5980,7 +6462,7 @@
       <c r="A263" s="34"/>
       <c r="B263" s="18"/>
       <c r="C263" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D263" s="20"/>
       <c r="E263" s="19"/>
@@ -5994,13 +6476,13 @@
       <c r="C264" s="22"/>
       <c r="D264" s="22"/>
       <c r="E264" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G264" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H264" s="24"/>
     </row>
@@ -6010,13 +6492,13 @@
       <c r="C265" s="22"/>
       <c r="D265" s="22"/>
       <c r="E265" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G265" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H265" s="24"/>
     </row>
@@ -6026,11 +6508,11 @@
       <c r="C266" s="22"/>
       <c r="D266" s="22"/>
       <c r="E266" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F266" s="24"/>
       <c r="G266" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H266" s="24"/>
     </row>
@@ -6040,11 +6522,11 @@
       <c r="C267" s="22"/>
       <c r="D267" s="22"/>
       <c r="E267" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F267" s="24"/>
       <c r="G267" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H267" s="24"/>
     </row>
@@ -6054,13 +6536,13 @@
       <c r="C268" s="22"/>
       <c r="D268" s="22"/>
       <c r="E268" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F268" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G268" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H268" s="24"/>
     </row>
@@ -6070,13 +6552,13 @@
       <c r="C269" s="22"/>
       <c r="D269" s="22"/>
       <c r="E269" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F269" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G269" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H269" s="24"/>
     </row>
@@ -6086,13 +6568,13 @@
       <c r="C270" s="22"/>
       <c r="D270" s="22"/>
       <c r="E270" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F270" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G270" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H270" s="24"/>
     </row>
@@ -6102,11 +6584,11 @@
       <c r="C271" s="22"/>
       <c r="D271" s="22"/>
       <c r="E271" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F271" s="24"/>
       <c r="G271" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H271" s="24"/>
     </row>
@@ -6116,13 +6598,13 @@
       <c r="C272" s="22"/>
       <c r="D272" s="22"/>
       <c r="E272" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G272" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H272" s="24"/>
     </row>
@@ -6132,11 +6614,11 @@
       <c r="C273" s="22"/>
       <c r="D273" s="22"/>
       <c r="E273" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F273" s="24"/>
       <c r="G273" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H273" s="24"/>
     </row>
@@ -6144,7 +6626,7 @@
       <c r="A274" s="34"/>
       <c r="B274" s="18"/>
       <c r="C274" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D274" s="20"/>
       <c r="E274" s="19"/>
@@ -6158,13 +6640,13 @@
       <c r="C275" s="22"/>
       <c r="D275" s="22"/>
       <c r="E275" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G275" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H275" s="24"/>
     </row>
@@ -6174,13 +6656,13 @@
       <c r="C276" s="22"/>
       <c r="D276" s="22"/>
       <c r="E276" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G276" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H276" s="24"/>
     </row>
@@ -6190,11 +6672,11 @@
       <c r="C277" s="22"/>
       <c r="D277" s="22"/>
       <c r="E277" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F277" s="24"/>
       <c r="G277" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H277" s="24"/>
     </row>
@@ -6204,11 +6686,11 @@
       <c r="C278" s="22"/>
       <c r="D278" s="22"/>
       <c r="E278" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F278" s="24"/>
       <c r="G278" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H278" s="24"/>
     </row>
@@ -6218,13 +6700,13 @@
       <c r="C279" s="22"/>
       <c r="D279" s="22"/>
       <c r="E279" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G279" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H279" s="24"/>
     </row>
@@ -6234,13 +6716,13 @@
       <c r="C280" s="22"/>
       <c r="D280" s="22"/>
       <c r="E280" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G280" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H280" s="24"/>
     </row>
@@ -6250,13 +6732,13 @@
       <c r="C281" s="22"/>
       <c r="D281" s="22"/>
       <c r="E281" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G281" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H281" s="24"/>
     </row>
@@ -6266,11 +6748,11 @@
       <c r="C282" s="22"/>
       <c r="D282" s="22"/>
       <c r="E282" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F282" s="24"/>
       <c r="G282" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H282" s="24"/>
     </row>
@@ -6280,13 +6762,13 @@
       <c r="C283" s="22"/>
       <c r="D283" s="22"/>
       <c r="E283" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G283" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H283" s="24"/>
     </row>
@@ -6296,11 +6778,11 @@
       <c r="C284" s="22"/>
       <c r="D284" s="22"/>
       <c r="E284" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F284" s="24"/>
       <c r="G284" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H284" s="24"/>
     </row>
@@ -6308,7 +6790,7 @@
       <c r="A285" s="34"/>
       <c r="B285" s="18"/>
       <c r="C285" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D285" s="20"/>
       <c r="E285" s="19"/>
@@ -6322,13 +6804,13 @@
       <c r="C286" s="22"/>
       <c r="D286" s="22"/>
       <c r="E286" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G286" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H286" s="24"/>
     </row>
@@ -6338,13 +6820,13 @@
       <c r="C287" s="22"/>
       <c r="D287" s="22"/>
       <c r="E287" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G287" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H287" s="24"/>
     </row>
@@ -6354,11 +6836,11 @@
       <c r="C288" s="22"/>
       <c r="D288" s="22"/>
       <c r="E288" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F288" s="24"/>
       <c r="G288" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H288" s="24"/>
     </row>
@@ -6368,11 +6850,11 @@
       <c r="C289" s="22"/>
       <c r="D289" s="22"/>
       <c r="E289" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F289" s="24"/>
       <c r="G289" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H289" s="24"/>
     </row>
@@ -6382,13 +6864,13 @@
       <c r="C290" s="22"/>
       <c r="D290" s="22"/>
       <c r="E290" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G290" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H290" s="24"/>
     </row>
@@ -6398,13 +6880,13 @@
       <c r="C291" s="22"/>
       <c r="D291" s="22"/>
       <c r="E291" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F291" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G291" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H291" s="24"/>
     </row>
@@ -6414,13 +6896,13 @@
       <c r="C292" s="22"/>
       <c r="D292" s="22"/>
       <c r="E292" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G292" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H292" s="24"/>
     </row>
@@ -6430,11 +6912,11 @@
       <c r="C293" s="22"/>
       <c r="D293" s="22"/>
       <c r="E293" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F293" s="24"/>
       <c r="G293" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H293" s="24"/>
     </row>
@@ -6444,13 +6926,13 @@
       <c r="C294" s="22"/>
       <c r="D294" s="22"/>
       <c r="E294" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F294" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G294" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H294" s="24"/>
     </row>
@@ -6460,11 +6942,11 @@
       <c r="C295" s="22"/>
       <c r="D295" s="22"/>
       <c r="E295" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F295" s="24"/>
       <c r="G295" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H295" s="24"/>
     </row>
@@ -6472,7 +6954,7 @@
       <c r="A296" s="34"/>
       <c r="B296" s="18"/>
       <c r="C296" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D296" s="20"/>
       <c r="E296" s="19"/>
@@ -6486,13 +6968,13 @@
       <c r="C297" s="22"/>
       <c r="D297" s="22"/>
       <c r="E297" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G297" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H297" s="24"/>
     </row>
@@ -6502,13 +6984,13 @@
       <c r="C298" s="22"/>
       <c r="D298" s="22"/>
       <c r="E298" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G298" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H298" s="24"/>
     </row>
@@ -6518,11 +7000,11 @@
       <c r="C299" s="22"/>
       <c r="D299" s="22"/>
       <c r="E299" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F299" s="24"/>
       <c r="G299" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H299" s="24"/>
     </row>
@@ -6532,11 +7014,11 @@
       <c r="C300" s="22"/>
       <c r="D300" s="22"/>
       <c r="E300" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F300" s="24"/>
       <c r="G300" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H300" s="24"/>
     </row>
@@ -6546,13 +7028,13 @@
       <c r="C301" s="22"/>
       <c r="D301" s="22"/>
       <c r="E301" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F301" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G301" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H301" s="24"/>
     </row>
@@ -6562,13 +7044,13 @@
       <c r="C302" s="22"/>
       <c r="D302" s="22"/>
       <c r="E302" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G302" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H302" s="24"/>
     </row>
@@ -6578,13 +7060,13 @@
       <c r="C303" s="22"/>
       <c r="D303" s="22"/>
       <c r="E303" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F303" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G303" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H303" s="24"/>
     </row>
@@ -6594,11 +7076,11 @@
       <c r="C304" s="22"/>
       <c r="D304" s="22"/>
       <c r="E304" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F304" s="24"/>
       <c r="G304" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H304" s="24"/>
     </row>
@@ -6608,13 +7090,13 @@
       <c r="C305" s="22"/>
       <c r="D305" s="22"/>
       <c r="E305" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F305" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G305" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H305" s="24"/>
     </row>
@@ -6624,11 +7106,11 @@
       <c r="C306" s="22"/>
       <c r="D306" s="22"/>
       <c r="E306" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F306" s="24"/>
       <c r="G306" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H306" s="24"/>
     </row>
@@ -6636,7 +7118,7 @@
       <c r="A307" s="34"/>
       <c r="B307" s="18"/>
       <c r="C307" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D307" s="20"/>
       <c r="E307" s="19"/>
@@ -6650,13 +7132,13 @@
       <c r="C308" s="22"/>
       <c r="D308" s="22"/>
       <c r="E308" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F308" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G308" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H308" s="24"/>
     </row>
@@ -6666,13 +7148,13 @@
       <c r="C309" s="22"/>
       <c r="D309" s="22"/>
       <c r="E309" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F309" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G309" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H309" s="24"/>
     </row>
@@ -6682,11 +7164,11 @@
       <c r="C310" s="22"/>
       <c r="D310" s="22"/>
       <c r="E310" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F310" s="24"/>
       <c r="G310" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H310" s="24"/>
     </row>
@@ -6696,11 +7178,11 @@
       <c r="C311" s="22"/>
       <c r="D311" s="22"/>
       <c r="E311" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F311" s="24"/>
       <c r="G311" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H311" s="24"/>
     </row>
@@ -6710,13 +7192,13 @@
       <c r="C312" s="22"/>
       <c r="D312" s="22"/>
       <c r="E312" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F312" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G312" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H312" s="24"/>
     </row>
@@ -6726,13 +7208,13 @@
       <c r="C313" s="22"/>
       <c r="D313" s="22"/>
       <c r="E313" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F313" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G313" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H313" s="24"/>
     </row>
@@ -6742,13 +7224,13 @@
       <c r="C314" s="22"/>
       <c r="D314" s="22"/>
       <c r="E314" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G314" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H314" s="24"/>
     </row>
@@ -6758,11 +7240,11 @@
       <c r="C315" s="22"/>
       <c r="D315" s="22"/>
       <c r="E315" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F315" s="24"/>
       <c r="G315" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H315" s="24"/>
     </row>
@@ -6772,13 +7254,13 @@
       <c r="C316" s="22"/>
       <c r="D316" s="22"/>
       <c r="E316" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F316" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G316" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H316" s="24"/>
     </row>
@@ -6788,11 +7270,11 @@
       <c r="C317" s="22"/>
       <c r="D317" s="22"/>
       <c r="E317" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F317" s="24"/>
       <c r="G317" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H317" s="24"/>
     </row>
@@ -6800,7 +7282,7 @@
       <c r="A318" s="34"/>
       <c r="B318" s="18"/>
       <c r="C318" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D318" s="20"/>
       <c r="E318" s="19"/>
@@ -6814,13 +7296,13 @@
       <c r="C319" s="22"/>
       <c r="D319" s="22"/>
       <c r="E319" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F319" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G319" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H319" s="24"/>
     </row>
@@ -6830,13 +7312,13 @@
       <c r="C320" s="22"/>
       <c r="D320" s="22"/>
       <c r="E320" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F320" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G320" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H320" s="24"/>
     </row>
@@ -6846,11 +7328,11 @@
       <c r="C321" s="22"/>
       <c r="D321" s="22"/>
       <c r="E321" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F321" s="24"/>
       <c r="G321" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H321" s="24"/>
     </row>
@@ -6860,11 +7342,11 @@
       <c r="C322" s="22"/>
       <c r="D322" s="22"/>
       <c r="E322" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F322" s="24"/>
       <c r="G322" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H322" s="24"/>
     </row>
@@ -6874,13 +7356,13 @@
       <c r="C323" s="22"/>
       <c r="D323" s="22"/>
       <c r="E323" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F323" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G323" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H323" s="24"/>
     </row>
@@ -6890,13 +7372,13 @@
       <c r="C324" s="22"/>
       <c r="D324" s="22"/>
       <c r="E324" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F324" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G324" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H324" s="24"/>
     </row>
@@ -6906,13 +7388,13 @@
       <c r="C325" s="22"/>
       <c r="D325" s="22"/>
       <c r="E325" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G325" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H325" s="24"/>
     </row>
@@ -6922,11 +7404,11 @@
       <c r="C326" s="22"/>
       <c r="D326" s="22"/>
       <c r="E326" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F326" s="24"/>
       <c r="G326" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H326" s="24"/>
     </row>
@@ -6936,13 +7418,13 @@
       <c r="C327" s="22"/>
       <c r="D327" s="22"/>
       <c r="E327" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F327" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G327" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H327" s="24"/>
     </row>
@@ -6952,11 +7434,11 @@
       <c r="C328" s="22"/>
       <c r="D328" s="22"/>
       <c r="E328" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F328" s="24"/>
       <c r="G328" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H328" s="24"/>
     </row>
@@ -6964,7 +7446,7 @@
       <c r="A329" s="34"/>
       <c r="B329" s="18"/>
       <c r="C329" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D329" s="20"/>
       <c r="E329" s="19"/>
@@ -6978,13 +7460,13 @@
       <c r="C330" s="22"/>
       <c r="D330" s="22"/>
       <c r="E330" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F330" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G330" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H330" s="24"/>
     </row>
@@ -6994,13 +7476,13 @@
       <c r="C331" s="22"/>
       <c r="D331" s="22"/>
       <c r="E331" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F331" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G331" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H331" s="24"/>
     </row>
@@ -7010,11 +7492,11 @@
       <c r="C332" s="22"/>
       <c r="D332" s="22"/>
       <c r="E332" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F332" s="24"/>
       <c r="G332" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H332" s="24"/>
     </row>
@@ -7024,11 +7506,11 @@
       <c r="C333" s="22"/>
       <c r="D333" s="22"/>
       <c r="E333" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F333" s="24"/>
       <c r="G333" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H333" s="24"/>
     </row>
@@ -7038,13 +7520,13 @@
       <c r="C334" s="22"/>
       <c r="D334" s="22"/>
       <c r="E334" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F334" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G334" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H334" s="24"/>
     </row>
@@ -7054,13 +7536,13 @@
       <c r="C335" s="22"/>
       <c r="D335" s="22"/>
       <c r="E335" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F335" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G335" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H335" s="24"/>
     </row>
@@ -7070,13 +7552,13 @@
       <c r="C336" s="22"/>
       <c r="D336" s="22"/>
       <c r="E336" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G336" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H336" s="24"/>
     </row>
@@ -7086,11 +7568,11 @@
       <c r="C337" s="22"/>
       <c r="D337" s="22"/>
       <c r="E337" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F337" s="24"/>
       <c r="G337" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H337" s="24"/>
     </row>
@@ -7100,13 +7582,13 @@
       <c r="C338" s="22"/>
       <c r="D338" s="22"/>
       <c r="E338" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F338" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G338" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H338" s="24"/>
     </row>
@@ -7116,18 +7598,18 @@
       <c r="C339" s="22"/>
       <c r="D339" s="22"/>
       <c r="E339" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F339" s="24"/>
       <c r="G339" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H339" s="24"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="18"/>
       <c r="C340" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D340" s="20"/>
       <c r="E340" s="19"/>
@@ -7140,13 +7622,13 @@
       <c r="C341" s="22"/>
       <c r="D341" s="22"/>
       <c r="E341" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F341" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G341" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H341" s="24"/>
     </row>
@@ -7155,13 +7637,13 @@
       <c r="C342" s="22"/>
       <c r="D342" s="22"/>
       <c r="E342" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F342" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G342" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H342" s="24"/>
     </row>
@@ -7170,11 +7652,11 @@
       <c r="C343" s="22"/>
       <c r="D343" s="22"/>
       <c r="E343" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F343" s="24"/>
       <c r="G343" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H343" s="24"/>
     </row>
@@ -7183,11 +7665,11 @@
       <c r="C344" s="22"/>
       <c r="D344" s="22"/>
       <c r="E344" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F344" s="24"/>
       <c r="G344" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H344" s="24"/>
     </row>
@@ -7196,13 +7678,13 @@
       <c r="C345" s="22"/>
       <c r="D345" s="22"/>
       <c r="E345" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F345" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G345" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H345" s="24"/>
     </row>
@@ -7211,13 +7693,13 @@
       <c r="C346" s="22"/>
       <c r="D346" s="22"/>
       <c r="E346" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F346" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G346" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H346" s="24"/>
     </row>
@@ -7226,11 +7708,11 @@
       <c r="C347" s="22"/>
       <c r="D347" s="22"/>
       <c r="E347" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F347" s="24"/>
       <c r="G347" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H347" s="24"/>
     </row>
@@ -7239,13 +7721,13 @@
       <c r="C348" s="22"/>
       <c r="D348" s="22"/>
       <c r="E348" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F348" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G348" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H348" s="24"/>
     </row>
@@ -7254,11 +7736,11 @@
       <c r="C349" s="22"/>
       <c r="D349" s="22"/>
       <c r="E349" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F349" s="24"/>
       <c r="G349" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H349" s="24"/>
     </row>
@@ -7267,11 +7749,11 @@
       <c r="C350" s="22"/>
       <c r="D350" s="22"/>
       <c r="E350" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F350" s="24"/>
       <c r="G350" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H350" s="24"/>
     </row>
@@ -7280,13 +7762,13 @@
       <c r="C351" s="22"/>
       <c r="D351" s="22"/>
       <c r="E351" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F351" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G351" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H351" s="24"/>
     </row>
@@ -7295,11 +7777,11 @@
       <c r="C352" s="22"/>
       <c r="D352" s="22"/>
       <c r="E352" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F352" s="24"/>
       <c r="G352" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H352" s="24"/>
     </row>
@@ -7308,13 +7790,13 @@
       <c r="C353" s="22"/>
       <c r="D353" s="22"/>
       <c r="E353" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F353" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G353" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H353" s="24"/>
     </row>
@@ -7323,13 +7805,13 @@
       <c r="C354" s="22"/>
       <c r="D354" s="22"/>
       <c r="E354" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F354" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G354" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H354" s="24"/>
     </row>
@@ -7338,11 +7820,11 @@
       <c r="C355" s="22"/>
       <c r="D355" s="22"/>
       <c r="E355" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F355" s="24"/>
       <c r="G355" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H355" s="24"/>
     </row>
@@ -7351,18 +7833,18 @@
       <c r="C356" s="22"/>
       <c r="D356" s="22"/>
       <c r="E356" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F356" s="24"/>
       <c r="G356" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H356" s="24"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="18"/>
       <c r="C357" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D357" s="20"/>
       <c r="E357" s="19"/>
@@ -7375,13 +7857,13 @@
       <c r="C358" s="22"/>
       <c r="D358" s="22"/>
       <c r="E358" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F358" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G358" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H358" s="24"/>
     </row>
@@ -7390,13 +7872,13 @@
       <c r="C359" s="22"/>
       <c r="D359" s="22"/>
       <c r="E359" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F359" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G359" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H359" s="24"/>
     </row>
@@ -7405,11 +7887,11 @@
       <c r="C360" s="22"/>
       <c r="D360" s="22"/>
       <c r="E360" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F360" s="24"/>
       <c r="G360" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H360" s="24"/>
     </row>
@@ -7418,11 +7900,11 @@
       <c r="C361" s="22"/>
       <c r="D361" s="22"/>
       <c r="E361" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F361" s="24"/>
       <c r="G361" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H361" s="24"/>
     </row>
@@ -7431,13 +7913,13 @@
       <c r="C362" s="22"/>
       <c r="D362" s="22"/>
       <c r="E362" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F362" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G362" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H362" s="24"/>
     </row>
@@ -7446,13 +7928,13 @@
       <c r="C363" s="22"/>
       <c r="D363" s="22"/>
       <c r="E363" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F363" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G363" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H363" s="24"/>
     </row>
@@ -7461,11 +7943,11 @@
       <c r="C364" s="22"/>
       <c r="D364" s="22"/>
       <c r="E364" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F364" s="24"/>
       <c r="G364" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H364" s="24"/>
     </row>
@@ -7474,13 +7956,13 @@
       <c r="C365" s="22"/>
       <c r="D365" s="22"/>
       <c r="E365" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F365" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G365" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H365" s="24"/>
     </row>
@@ -7489,11 +7971,11 @@
       <c r="C366" s="22"/>
       <c r="D366" s="22"/>
       <c r="E366" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F366" s="24"/>
       <c r="G366" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H366" s="24"/>
     </row>
@@ -7502,11 +7984,11 @@
       <c r="C367" s="22"/>
       <c r="D367" s="22"/>
       <c r="E367" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F367" s="24"/>
       <c r="G367" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H367" s="24"/>
     </row>
@@ -7515,13 +7997,13 @@
       <c r="C368" s="22"/>
       <c r="D368" s="22"/>
       <c r="E368" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F368" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G368" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H368" s="24"/>
     </row>
@@ -7530,11 +8012,11 @@
       <c r="C369" s="22"/>
       <c r="D369" s="22"/>
       <c r="E369" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F369" s="24"/>
       <c r="G369" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H369" s="24"/>
     </row>
@@ -7543,13 +8025,13 @@
       <c r="C370" s="22"/>
       <c r="D370" s="22"/>
       <c r="E370" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F370" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G370" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H370" s="24"/>
     </row>
@@ -7558,13 +8040,13 @@
       <c r="C371" s="22"/>
       <c r="D371" s="22"/>
       <c r="E371" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F371" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G371" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H371" s="24"/>
     </row>
@@ -7573,11 +8055,11 @@
       <c r="C372" s="22"/>
       <c r="D372" s="22"/>
       <c r="E372" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F372" s="24"/>
       <c r="G372" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H372" s="24"/>
     </row>
@@ -7586,18 +8068,18 @@
       <c r="C373" s="22"/>
       <c r="D373" s="22"/>
       <c r="E373" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F373" s="24"/>
       <c r="G373" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H373" s="24"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="18"/>
       <c r="C374" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D374" s="20"/>
       <c r="E374" s="19"/>
@@ -7610,13 +8092,13 @@
       <c r="C375" s="22"/>
       <c r="D375" s="22"/>
       <c r="E375" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F375" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G375" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H375" s="24"/>
     </row>
@@ -7625,13 +8107,13 @@
       <c r="C376" s="22"/>
       <c r="D376" s="22"/>
       <c r="E376" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F376" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G376" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H376" s="24"/>
     </row>
@@ -7640,11 +8122,11 @@
       <c r="C377" s="22"/>
       <c r="D377" s="22"/>
       <c r="E377" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F377" s="24"/>
       <c r="G377" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H377" s="24"/>
     </row>
@@ -7653,11 +8135,11 @@
       <c r="C378" s="22"/>
       <c r="D378" s="22"/>
       <c r="E378" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F378" s="24"/>
       <c r="G378" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H378" s="24"/>
     </row>
@@ -7666,13 +8148,13 @@
       <c r="C379" s="22"/>
       <c r="D379" s="22"/>
       <c r="E379" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F379" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G379" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H379" s="24"/>
     </row>
@@ -7681,13 +8163,13 @@
       <c r="C380" s="22"/>
       <c r="D380" s="22"/>
       <c r="E380" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F380" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G380" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H380" s="24"/>
     </row>
@@ -7696,11 +8178,11 @@
       <c r="C381" s="22"/>
       <c r="D381" s="22"/>
       <c r="E381" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F381" s="24"/>
       <c r="G381" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H381" s="24"/>
     </row>
@@ -7709,13 +8191,13 @@
       <c r="C382" s="22"/>
       <c r="D382" s="22"/>
       <c r="E382" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F382" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G382" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H382" s="24"/>
     </row>
@@ -7724,11 +8206,11 @@
       <c r="C383" s="22"/>
       <c r="D383" s="22"/>
       <c r="E383" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F383" s="24"/>
       <c r="G383" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H383" s="24"/>
     </row>
@@ -7737,11 +8219,11 @@
       <c r="C384" s="22"/>
       <c r="D384" s="22"/>
       <c r="E384" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F384" s="24"/>
       <c r="G384" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H384" s="24"/>
     </row>
@@ -7750,13 +8232,13 @@
       <c r="C385" s="22"/>
       <c r="D385" s="22"/>
       <c r="E385" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F385" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G385" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H385" s="24"/>
     </row>
@@ -7765,11 +8247,11 @@
       <c r="C386" s="22"/>
       <c r="D386" s="22"/>
       <c r="E386" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F386" s="24"/>
       <c r="G386" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H386" s="24"/>
     </row>
@@ -7778,13 +8260,13 @@
       <c r="C387" s="22"/>
       <c r="D387" s="22"/>
       <c r="E387" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F387" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G387" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H387" s="24"/>
     </row>
@@ -7793,13 +8275,13 @@
       <c r="C388" s="22"/>
       <c r="D388" s="22"/>
       <c r="E388" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F388" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G388" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H388" s="24"/>
     </row>
@@ -7808,11 +8290,11 @@
       <c r="C389" s="22"/>
       <c r="D389" s="22"/>
       <c r="E389" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F389" s="24"/>
       <c r="G389" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H389" s="24"/>
     </row>
@@ -7821,18 +8303,18 @@
       <c r="C390" s="22"/>
       <c r="D390" s="22"/>
       <c r="E390" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F390" s="24"/>
       <c r="G390" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H390" s="24"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="18"/>
       <c r="C391" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D391" s="20"/>
       <c r="E391" s="19"/>
@@ -7845,13 +8327,13 @@
       <c r="C392" s="22"/>
       <c r="D392" s="22"/>
       <c r="E392" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F392" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G392" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H392" s="24"/>
     </row>
@@ -7860,13 +8342,13 @@
       <c r="C393" s="22"/>
       <c r="D393" s="22"/>
       <c r="E393" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F393" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G393" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H393" s="24"/>
     </row>
@@ -7875,11 +8357,11 @@
       <c r="C394" s="22"/>
       <c r="D394" s="22"/>
       <c r="E394" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F394" s="24"/>
       <c r="G394" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H394" s="24"/>
     </row>
@@ -7888,11 +8370,11 @@
       <c r="C395" s="22"/>
       <c r="D395" s="22"/>
       <c r="E395" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F395" s="24"/>
       <c r="G395" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H395" s="24"/>
     </row>
@@ -7901,13 +8383,13 @@
       <c r="C396" s="22"/>
       <c r="D396" s="22"/>
       <c r="E396" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F396" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G396" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H396" s="24"/>
     </row>
@@ -7916,13 +8398,13 @@
       <c r="C397" s="22"/>
       <c r="D397" s="22"/>
       <c r="E397" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F397" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G397" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H397" s="24"/>
     </row>
@@ -7931,11 +8413,11 @@
       <c r="C398" s="22"/>
       <c r="D398" s="22"/>
       <c r="E398" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F398" s="24"/>
       <c r="G398" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H398" s="24"/>
     </row>
@@ -7944,13 +8426,13 @@
       <c r="C399" s="22"/>
       <c r="D399" s="22"/>
       <c r="E399" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F399" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G399" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H399" s="24"/>
     </row>
@@ -7959,11 +8441,11 @@
       <c r="C400" s="22"/>
       <c r="D400" s="22"/>
       <c r="E400" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F400" s="24"/>
       <c r="G400" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H400" s="24"/>
     </row>
@@ -7972,11 +8454,11 @@
       <c r="C401" s="22"/>
       <c r="D401" s="22"/>
       <c r="E401" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F401" s="24"/>
       <c r="G401" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H401" s="24"/>
     </row>
@@ -7985,13 +8467,13 @@
       <c r="C402" s="22"/>
       <c r="D402" s="22"/>
       <c r="E402" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F402" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G402" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H402" s="24"/>
     </row>
@@ -8000,11 +8482,11 @@
       <c r="C403" s="22"/>
       <c r="D403" s="22"/>
       <c r="E403" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F403" s="24"/>
       <c r="G403" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H403" s="24"/>
     </row>
@@ -8013,13 +8495,13 @@
       <c r="C404" s="22"/>
       <c r="D404" s="22"/>
       <c r="E404" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F404" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G404" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H404" s="24"/>
     </row>
@@ -8028,13 +8510,13 @@
       <c r="C405" s="22"/>
       <c r="D405" s="22"/>
       <c r="E405" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F405" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G405" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H405" s="24"/>
     </row>
@@ -8043,11 +8525,11 @@
       <c r="C406" s="22"/>
       <c r="D406" s="22"/>
       <c r="E406" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F406" s="24"/>
       <c r="G406" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H406" s="24"/>
     </row>
@@ -8056,11 +8538,11 @@
       <c r="C407" s="22"/>
       <c r="D407" s="22"/>
       <c r="E407" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F407" s="24"/>
       <c r="G407" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H407" s="24"/>
     </row>
@@ -8116,7 +8598,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8129,377 +8611,415 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="12" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="12" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="16.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="12" width="13.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="12" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="37" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="37" t="s">
         <v>187</v>
       </c>
+      <c r="G1" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="H1" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" s="38" t="n">
         <v>1234567890</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>200</v>
+      <c r="G2" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>123456789</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>213</v>
+      <c r="G3" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="0" t="s">
         <v>234</v>
       </c>
+      <c r="G5" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="H5" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I5" s="0"/>
       <c r="L5" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="0" t="s">
         <v>239</v>
       </c>
+      <c r="G6" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="H6" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I6" s="0"/>
       <c r="L6" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="G7" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="H7" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I7" s="0"/>
       <c r="L7" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="0"/>
+        <v>250</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>251</v>
+      </c>
       <c r="H8" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I8" s="0"/>
       <c r="L8" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="0"/>
+        <v>255</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="H9" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I9" s="0"/>
       <c r="L9" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="0"/>
+        <v>261</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="H10" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I10" s="0"/>
       <c r="L10" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="0"/>
+        <v>265</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="H11" s="12" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="0"/>
+        <v>268</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="H12" s="12" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="36" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
+      <c r="G13" s="12" t="s">
+        <v>272</v>
+      </c>
       <c r="H13" s="12" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="0"/>
+        <v>274</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>275</v>
+      </c>
       <c r="H14" s="12" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="0"/>
+        <v>277</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="H15" s="12" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="12" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8517,7 +9037,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ZavrsniProjekat/Docs/TestData.xlsx
+++ b/ZavrsniProjekat/Docs/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="287">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -486,10 +486,10 @@
     <t xml:space="preserve">Verify that user can’t submit future date as birthday date</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user can’t submit date with year other than listed in year list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can’t submit date with month other than listed in month list</t>
+    <t xml:space="preserve">Verify that user can’t submit date with invalid month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can’t submit date with invalid day</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that user can’t submit date with day other than listed in day table</t>
@@ -897,6 +897,9 @@
     <t xml:space="preserve">User stays on the same page, no popups or dialogs apear. ‘Date of Birth’ field is circled in red.</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify that user can’t submit date with year earlier than listed in year list</t>
+  </si>
+  <si>
     <t xml:space="preserve">year = 1899</t>
   </si>
   <si>
@@ -1207,6 +1210,18 @@
   </si>
   <si>
     <t xml:space="preserve">Oct 1995 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1995 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1995 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 Oct 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 Oct 2101</t>
   </si>
 </sst>
 </file>
@@ -1697,12 +1712,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2484,6 +2499,9 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
+      <c r="F42" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9"/>
@@ -2492,6 +2510,9 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
+      <c r="F43" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="9"/>
@@ -2500,6 +2521,9 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
+      <c r="F44" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9"/>
@@ -2508,6 +2532,9 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
+      <c r="F45" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
@@ -2517,6 +2544,9 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="F46" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
@@ -2536,10 +2566,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="H65" s="0" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="H64" s="0" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2569,7 +2599,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576 F1">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("",F1)))</formula>
     </cfRule>
@@ -2598,9 +2628,9 @@
   <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C357" activeCellId="0" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7844,7 +7874,7 @@
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="18"/>
       <c r="C357" s="19" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="D357" s="20"/>
       <c r="E357" s="19"/>
@@ -8000,7 +8030,7 @@
         <v>92</v>
       </c>
       <c r="F368" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G368" s="23" t="s">
         <v>94</v>
@@ -8079,7 +8109,7 @@
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="18"/>
       <c r="C374" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D374" s="20"/>
       <c r="E374" s="19"/>
@@ -8235,7 +8265,7 @@
         <v>92</v>
       </c>
       <c r="F385" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G385" s="23" t="s">
         <v>94</v>
@@ -8263,7 +8293,7 @@
         <v>97</v>
       </c>
       <c r="F387" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G387" s="23" t="s">
         <v>99</v>
@@ -8314,7 +8344,7 @@
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="18"/>
       <c r="C391" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D391" s="20"/>
       <c r="E391" s="19"/>
@@ -8470,7 +8500,7 @@
         <v>92</v>
       </c>
       <c r="F402" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G402" s="23" t="s">
         <v>94</v>
@@ -8513,7 +8543,7 @@
         <v>100</v>
       </c>
       <c r="F405" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G405" s="23" t="s">
         <v>102</v>
@@ -8611,12 +8641,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8637,388 +8667,408 @@
   <sheetData>
     <row r="1" s="37" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F2" s="38" t="n">
         <v>1234567890</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>123456789</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I5" s="0"/>
       <c r="L5" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I6" s="0"/>
       <c r="L6" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I7" s="0"/>
       <c r="L7" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I8" s="0"/>
       <c r="L8" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I9" s="0"/>
       <c r="L9" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I10" s="0"/>
       <c r="L10" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/ZavrsniProjekat/Docs/TestData.xlsx
+++ b/ZavrsniProjekat/Docs/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="307">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -162,13 +162,19 @@
     <t xml:space="preserve">Verify that date field won’t accept date in dd Mon yy format</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user can’t submit future date as birthday date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can’t submit date with invalid month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user can’t submit date with invalid day</t>
+    <t xml:space="preserve">Verify that user can’t enter future date as birthday date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user cant enter year earlier than listed with date picker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can’t enter date with invalid month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can’t enter date with invalid day</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that user can pick a previous year using date picker arrows</t>
@@ -372,7 +378,7 @@
     <t xml:space="preserve">imeprezime@domen.c0m</t>
   </si>
   <si>
-    <t xml:space="preserve">11 testMonth 2020</t>
+    <t xml:space="preserve">11 testmonth 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Physics</t>
@@ -894,71 +900,67 @@
     <t xml:space="preserve">year = 2070</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify that user can’t manually enter date with year earlier than listed in year list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year = 1899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on inactive backgorund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date picker field is cirled in red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can’t manually enter date with invalid month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year = 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month = testmonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can’t manually enter date with invalid day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date = 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the arrow pointing left in the date picker box and continue clicking until previous year is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Months decrement by one with every click on the arrow until previous year is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date = 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the arrow pointing right in the date picker box and continue clicking until the next year is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Months increment by one with every click on the arrow until next year is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date picker opened, selection bar blinking in the date field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete the default value in the date picker field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date picker is empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">User stays on the same page, no popups or dialogs apear. ‘Date of Birth’ field is circled in red.</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user can’t submit date with year earlier than listed in year list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year = 1899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year = 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month = testmonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date = 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the arrow pointing left in the date picker box and continue clicking until previous year is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Months decrement by one with every click on the arrow until previous year is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date = 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the arrow pointing right in the date picker box and continue clicking until the next year is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Months increment by one with every click on the arrow until next year is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date picker opened, selection bar blinking in the date field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete the default value in the date picker field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date picker is empty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date picker field is empty</t>
   </si>
   <si>
     <t xml:space="preserve">Enter date</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03 Oct 1995</t>
-    </r>
+    <t xml:space="preserve">Date = 03 Oct 1995</t>
   </si>
   <si>
     <t xml:space="preserve">Date visible in the date picker field</t>
@@ -972,167 +974,19 @@
 Date of Birth : 03 October,1995</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3 Oct 1995</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">October 03 1995</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1995</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">October 03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">October</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1995 03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">October</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">95</t>
-    </r>
+    <t xml:space="preserve">Date = 3 Oct 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date = October 03 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date = 1995 October 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date = October 1995 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date = 03 October 95</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +998,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1180,11 +1034,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1202,7 +1051,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F9D4"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1494,7 +1343,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1524,6 +1373,22 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF996600"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1574,7 +1439,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1584,15 +1449,15 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF6F9D4"/>
-      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1606,7 +1471,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -1639,19 +1504,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.96"/>
   </cols>
   <sheetData>
@@ -1690,7 +1555,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="F2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1710,7 +1576,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="b">
+      <c r="F3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1730,7 +1597,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="b">
+      <c r="F4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1752,7 +1620,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="b">
+      <c r="F5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1772,7 +1641,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="b">
+      <c r="F6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1792,7 +1662,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="b">
+      <c r="F7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1812,7 +1683,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="b">
+      <c r="F8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1704,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="b">
+      <c r="F9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1852,7 +1725,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="b">
+      <c r="F10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1872,7 +1746,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="b">
+      <c r="F11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1892,7 +1767,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="b">
+      <c r="F12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1912,7 +1788,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="b">
+      <c r="F13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1932,7 +1809,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="b">
+      <c r="F14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1952,7 +1830,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="b">
+      <c r="F15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1972,7 +1851,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="b">
+      <c r="F16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1994,7 +1874,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="b">
+      <c r="F17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2014,7 +1895,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="b">
+      <c r="F18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2036,7 +1918,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="b">
+      <c r="F19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2056,7 +1939,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="b">
+      <c r="F20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2076,7 +1960,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="b">
+      <c r="F21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2096,7 +1981,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="b">
+      <c r="F22" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2116,7 +2002,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="b">
+      <c r="F23" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2136,7 +2023,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="b">
+      <c r="F24" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2156,7 +2044,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="b">
+      <c r="F25" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2176,7 +2065,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="b">
+      <c r="F26" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2196,7 +2086,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="b">
+      <c r="F27" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2216,7 +2107,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="b">
+      <c r="F28" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2236,7 +2128,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="b">
+      <c r="F29" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2256,7 +2149,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="b">
+      <c r="F30" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2276,7 +2170,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="b">
+      <c r="F31" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2295,7 +2190,8 @@
         <v>1</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5" t="b">
+      <c r="F32" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2312,7 +2208,8 @@
         <v>1</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5" t="b">
+      <c r="F33" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2329,7 +2226,8 @@
         <v>1</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5" t="b">
+      <c r="F34" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2346,7 +2244,8 @@
         <v>1</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="5" t="b">
+      <c r="F35" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2363,7 +2262,8 @@
         <v>1</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="5" t="b">
+      <c r="F36" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2380,7 +2280,8 @@
         <v>1</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="5" t="b">
+      <c r="F37" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2396,7 +2297,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F38" s="5" t="b">
+      <c r="E38" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2412,7 +2317,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="b">
+      <c r="E39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2422,13 +2331,17 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F40" s="5" t="b">
+      <c r="E40" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2438,13 +2351,17 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="b">
+      <c r="E41" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2454,13 +2371,14 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F42" s="5" t="b">
+      <c r="F42" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2469,22 +2387,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="11" t="s">
-        <v>51</v>
+      <c r="C43" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D43" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F43" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="H56" s="0" t="s">
-        <v>52</v>
+      <c r="F43" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="H57" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2429,7 @@
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B31"/>
-    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="B32:B44"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -2502,24 +2438,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TODO" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("TODO",D2)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TODO" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("TODO",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>NOT(ISERROR(SEARCH("",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>NOT(ISERROR(SEARCH("",F1)))</formula>
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="TODO" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("TODO",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2542,7 +2487,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2550,7 +2495,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="12" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="16.39"/>
@@ -2563,408 +2508,408 @@
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="14" t="n">
         <v>1234567890</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>123456789</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I5" s="0"/>
       <c r="L5" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I6" s="0"/>
       <c r="L6" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I7" s="0"/>
       <c r="L7" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I8" s="0"/>
       <c r="L8" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I9" s="0"/>
       <c r="L9" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I10" s="0"/>
       <c r="L10" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2996,15 +2941,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H528"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A473" activeCellId="0" sqref="A473"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A396" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A403" activeCellId="0" sqref="A403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.54"/>
@@ -3024,19 +2967,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,13 +3002,13 @@
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H3" s="27"/>
     </row>
@@ -3075,13 +3018,13 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H4" s="27"/>
     </row>
@@ -3091,11 +3034,11 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="27"/>
     </row>
@@ -3105,11 +3048,11 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H6" s="27"/>
     </row>
@@ -3119,13 +3062,13 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="27"/>
     </row>
@@ -3135,13 +3078,13 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -3151,11 +3094,11 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H9" s="27"/>
     </row>
@@ -3165,13 +3108,13 @@
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="27"/>
     </row>
@@ -3181,11 +3124,11 @@
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H11" s="27"/>
     </row>
@@ -3207,13 +3150,13 @@
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H13" s="27"/>
     </row>
@@ -3223,13 +3166,13 @@
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -3239,11 +3182,11 @@
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H15" s="27"/>
     </row>
@@ -3253,11 +3196,11 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H16" s="27"/>
     </row>
@@ -3267,13 +3210,13 @@
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H17" s="27"/>
     </row>
@@ -3283,13 +3226,13 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H18" s="27"/>
     </row>
@@ -3299,13 +3242,13 @@
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H19" s="27"/>
     </row>
@@ -3315,11 +3258,11 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H20" s="27"/>
     </row>
@@ -3329,13 +3272,13 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H21" s="27"/>
     </row>
@@ -3345,11 +3288,11 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H22" s="27"/>
     </row>
@@ -3359,11 +3302,11 @@
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H23" s="27"/>
     </row>
@@ -3373,13 +3316,13 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H24" s="27"/>
     </row>
@@ -3389,11 +3332,11 @@
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H25" s="27"/>
     </row>
@@ -3403,13 +3346,13 @@
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H26" s="27"/>
     </row>
@@ -3419,13 +3362,13 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H27" s="27"/>
     </row>
@@ -3435,11 +3378,11 @@
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H28" s="27"/>
     </row>
@@ -3449,13 +3392,13 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="27"/>
     </row>
@@ -3465,11 +3408,11 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="27"/>
     </row>
@@ -3479,11 +3422,11 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="27"/>
     </row>
@@ -3493,11 +3436,11 @@
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H32" s="27"/>
     </row>
@@ -3507,11 +3450,11 @@
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H33" s="27"/>
     </row>
@@ -3521,11 +3464,11 @@
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H34" s="27"/>
     </row>
@@ -3535,11 +3478,11 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H35" s="27"/>
     </row>
@@ -3549,13 +3492,13 @@
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H36" s="27"/>
     </row>
@@ -3565,13 +3508,13 @@
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H37" s="27"/>
     </row>
@@ -3581,11 +3524,11 @@
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H38" s="27"/>
     </row>
@@ -3595,13 +3538,13 @@
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H39" s="27"/>
     </row>
@@ -3611,11 +3554,11 @@
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H40" s="27"/>
     </row>
@@ -3625,13 +3568,13 @@
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H41" s="27"/>
     </row>
@@ -3641,11 +3584,11 @@
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H42" s="27"/>
     </row>
@@ -3666,20 +3609,20 @@
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H44" s="27"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="22" t="s">
@@ -3697,13 +3640,13 @@
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H46" s="27"/>
     </row>
@@ -3723,13 +3666,13 @@
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H48" s="27"/>
     </row>
@@ -3739,11 +3682,11 @@
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H49" s="27"/>
     </row>
@@ -3753,11 +3696,11 @@
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H50" s="27"/>
     </row>
@@ -3767,13 +3710,13 @@
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H51" s="27"/>
     </row>
@@ -3783,13 +3726,13 @@
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H52" s="27"/>
     </row>
@@ -3799,11 +3742,11 @@
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H53" s="27"/>
     </row>
@@ -3813,13 +3756,13 @@
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H54" s="27"/>
     </row>
@@ -3829,11 +3772,11 @@
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H55" s="27"/>
     </row>
@@ -3855,13 +3798,13 @@
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H57" s="27"/>
     </row>
@@ -3881,13 +3824,13 @@
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H59" s="27"/>
     </row>
@@ -3897,11 +3840,11 @@
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H60" s="27"/>
     </row>
@@ -3911,11 +3854,11 @@
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H61" s="27"/>
     </row>
@@ -3925,13 +3868,13 @@
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
       <c r="E62" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H62" s="27"/>
     </row>
@@ -3941,13 +3884,13 @@
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
       <c r="E63" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H63" s="27"/>
     </row>
@@ -3957,11 +3900,11 @@
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
       <c r="E64" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H64" s="27"/>
     </row>
@@ -3971,13 +3914,13 @@
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
       <c r="E65" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H65" s="27"/>
     </row>
@@ -3987,11 +3930,11 @@
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
       <c r="E66" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H66" s="27"/>
     </row>
@@ -4013,13 +3956,13 @@
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
       <c r="E68" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H68" s="27"/>
     </row>
@@ -4039,13 +3982,13 @@
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
       <c r="E70" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H70" s="27"/>
     </row>
@@ -4055,11 +3998,11 @@
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
       <c r="E71" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H71" s="27"/>
     </row>
@@ -4069,11 +4012,11 @@
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
       <c r="E72" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H72" s="27"/>
     </row>
@@ -4083,13 +4026,13 @@
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H73" s="27"/>
     </row>
@@ -4099,13 +4042,13 @@
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
       <c r="E74" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H74" s="27"/>
     </row>
@@ -4115,11 +4058,11 @@
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
       <c r="E75" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F75" s="27"/>
       <c r="G75" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H75" s="27"/>
     </row>
@@ -4129,13 +4072,13 @@
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H76" s="27"/>
     </row>
@@ -4145,11 +4088,11 @@
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
       <c r="E77" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H77" s="27"/>
     </row>
@@ -4171,13 +4114,13 @@
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
       <c r="E79" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H79" s="27"/>
     </row>
@@ -4197,13 +4140,13 @@
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
       <c r="E81" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H81" s="27"/>
     </row>
@@ -4213,11 +4156,11 @@
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H82" s="27"/>
     </row>
@@ -4227,11 +4170,11 @@
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
       <c r="E83" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H83" s="27"/>
     </row>
@@ -4241,13 +4184,13 @@
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
       <c r="E84" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H84" s="27"/>
     </row>
@@ -4257,13 +4200,13 @@
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
       <c r="E85" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H85" s="27"/>
     </row>
@@ -4273,11 +4216,11 @@
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
       <c r="E86" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H86" s="27"/>
     </row>
@@ -4287,13 +4230,13 @@
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
       <c r="E87" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H87" s="27"/>
     </row>
@@ -4303,11 +4246,11 @@
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
       <c r="E88" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H88" s="27"/>
     </row>
@@ -4329,13 +4272,13 @@
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
       <c r="E90" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H90" s="27"/>
     </row>
@@ -4355,13 +4298,13 @@
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H92" s="27"/>
     </row>
@@ -4371,11 +4314,11 @@
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
       <c r="E93" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H93" s="27"/>
     </row>
@@ -4385,11 +4328,11 @@
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
       <c r="E94" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H94" s="27"/>
     </row>
@@ -4399,13 +4342,13 @@
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H95" s="27"/>
     </row>
@@ -4415,13 +4358,13 @@
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
       <c r="E96" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H96" s="27"/>
     </row>
@@ -4431,11 +4374,11 @@
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
       <c r="E97" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H97" s="27"/>
     </row>
@@ -4445,13 +4388,13 @@
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
       <c r="E98" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H98" s="27"/>
     </row>
@@ -4461,11 +4404,11 @@
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
       <c r="E99" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H99" s="27"/>
     </row>
@@ -4487,13 +4430,13 @@
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H101" s="27"/>
     </row>
@@ -4513,13 +4456,13 @@
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
       <c r="E103" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H103" s="27"/>
     </row>
@@ -4529,11 +4472,11 @@
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H104" s="27"/>
     </row>
@@ -4543,11 +4486,11 @@
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H105" s="27"/>
     </row>
@@ -4557,13 +4500,13 @@
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H106" s="27"/>
     </row>
@@ -4573,13 +4516,13 @@
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="E107" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H107" s="27"/>
     </row>
@@ -4589,11 +4532,11 @@
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H108" s="27"/>
     </row>
@@ -4603,13 +4546,13 @@
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
       <c r="E109" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H109" s="27"/>
     </row>
@@ -4619,11 +4562,11 @@
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
       <c r="E110" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H110" s="27"/>
     </row>
@@ -4645,13 +4588,13 @@
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
       <c r="E112" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H112" s="27"/>
     </row>
@@ -4671,13 +4614,13 @@
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
       <c r="E114" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F114" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H114" s="27"/>
     </row>
@@ -4687,11 +4630,11 @@
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
       <c r="E115" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H115" s="27"/>
     </row>
@@ -4701,11 +4644,11 @@
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
       <c r="E116" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H116" s="27"/>
     </row>
@@ -4715,13 +4658,13 @@
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
       <c r="E117" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H117" s="27"/>
     </row>
@@ -4731,13 +4674,13 @@
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
       <c r="E118" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F118" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H118" s="27"/>
     </row>
@@ -4747,11 +4690,11 @@
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
       <c r="E119" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H119" s="27"/>
     </row>
@@ -4761,13 +4704,13 @@
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
       <c r="E120" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H120" s="27"/>
     </row>
@@ -4777,11 +4720,11 @@
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
       <c r="E121" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H121" s="27"/>
     </row>
@@ -4803,13 +4746,13 @@
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
       <c r="E123" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H123" s="27"/>
     </row>
@@ -4829,13 +4772,13 @@
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
       <c r="E125" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H125" s="27"/>
     </row>
@@ -4845,11 +4788,11 @@
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
       <c r="E126" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H126" s="27"/>
     </row>
@@ -4859,11 +4802,11 @@
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
       <c r="E127" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H127" s="27"/>
     </row>
@@ -4873,13 +4816,13 @@
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
       <c r="E128" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H128" s="27"/>
     </row>
@@ -4889,13 +4832,13 @@
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H129" s="27"/>
     </row>
@@ -4905,11 +4848,11 @@
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F130" s="27"/>
       <c r="G130" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H130" s="27"/>
     </row>
@@ -4919,13 +4862,13 @@
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H131" s="27"/>
     </row>
@@ -4935,11 +4878,11 @@
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
       <c r="E132" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H132" s="27"/>
     </row>
@@ -4961,13 +4904,13 @@
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
       <c r="E134" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F134" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H134" s="27"/>
     </row>
@@ -4987,13 +4930,13 @@
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
       <c r="E136" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F136" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H136" s="27"/>
     </row>
@@ -5003,11 +4946,11 @@
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
       <c r="E137" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F137" s="27"/>
       <c r="G137" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H137" s="27"/>
     </row>
@@ -5017,11 +4960,11 @@
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
       <c r="E138" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F138" s="27"/>
       <c r="G138" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H138" s="27"/>
     </row>
@@ -5031,13 +4974,13 @@
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
       <c r="E139" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F139" s="27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H139" s="27"/>
     </row>
@@ -5047,13 +4990,13 @@
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H140" s="27"/>
     </row>
@@ -5063,11 +5006,11 @@
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H141" s="27"/>
     </row>
@@ -5077,13 +5020,13 @@
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H142" s="27"/>
     </row>
@@ -5093,11 +5036,11 @@
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F143" s="27"/>
       <c r="G143" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H143" s="27"/>
     </row>
@@ -5119,13 +5062,13 @@
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F145" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H145" s="27"/>
     </row>
@@ -5145,13 +5088,13 @@
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
       <c r="E147" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F147" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H147" s="27"/>
     </row>
@@ -5161,11 +5104,11 @@
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
       <c r="E148" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F148" s="27"/>
       <c r="G148" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H148" s="27"/>
     </row>
@@ -5175,11 +5118,11 @@
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
       <c r="E149" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F149" s="27"/>
       <c r="G149" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H149" s="27"/>
     </row>
@@ -5189,13 +5132,13 @@
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F150" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H150" s="27"/>
     </row>
@@ -5205,13 +5148,13 @@
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
       <c r="E151" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F151" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H151" s="27"/>
     </row>
@@ -5221,11 +5164,11 @@
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
       <c r="E152" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F152" s="27"/>
       <c r="G152" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H152" s="27"/>
     </row>
@@ -5235,13 +5178,13 @@
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
       <c r="E153" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H153" s="27"/>
     </row>
@@ -5251,11 +5194,11 @@
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
       <c r="E154" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H154" s="27"/>
     </row>
@@ -5277,13 +5220,13 @@
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
       <c r="E156" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F156" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H156" s="27"/>
     </row>
@@ -5303,13 +5246,13 @@
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
       <c r="E158" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F158" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H158" s="27"/>
     </row>
@@ -5319,11 +5262,11 @@
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
       <c r="E159" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H159" s="27"/>
     </row>
@@ -5333,11 +5276,11 @@
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
       <c r="E160" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H160" s="27"/>
     </row>
@@ -5347,13 +5290,13 @@
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
       <c r="E161" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G161" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H161" s="27"/>
     </row>
@@ -5363,13 +5306,13 @@
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
       <c r="E162" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H162" s="27"/>
     </row>
@@ -5379,11 +5322,11 @@
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
       <c r="E163" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H163" s="27"/>
     </row>
@@ -5393,13 +5336,13 @@
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
       <c r="E164" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G164" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H164" s="27"/>
     </row>
@@ -5409,11 +5352,11 @@
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
       <c r="E165" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H165" s="27"/>
     </row>
@@ -5435,13 +5378,13 @@
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
       <c r="E167" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F167" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H167" s="27"/>
     </row>
@@ -5461,13 +5404,13 @@
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
       <c r="E169" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F169" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G169" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H169" s="27"/>
     </row>
@@ -5477,11 +5420,11 @@
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
       <c r="E170" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F170" s="27"/>
       <c r="G170" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H170" s="27"/>
     </row>
@@ -5491,11 +5434,11 @@
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
       <c r="E171" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H171" s="27"/>
     </row>
@@ -5505,13 +5448,13 @@
       <c r="C172" s="25"/>
       <c r="D172" s="25"/>
       <c r="E172" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F172" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G172" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H172" s="27"/>
     </row>
@@ -5521,13 +5464,13 @@
       <c r="C173" s="25"/>
       <c r="D173" s="25"/>
       <c r="E173" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F173" s="27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G173" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H173" s="27"/>
     </row>
@@ -5537,11 +5480,11 @@
       <c r="C174" s="25"/>
       <c r="D174" s="25"/>
       <c r="E174" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F174" s="27"/>
       <c r="G174" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H174" s="27"/>
     </row>
@@ -5551,13 +5494,13 @@
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
       <c r="E175" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F175" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G175" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H175" s="27"/>
     </row>
@@ -5567,11 +5510,11 @@
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
       <c r="E176" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F176" s="27"/>
       <c r="G176" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H176" s="27"/>
     </row>
@@ -5595,13 +5538,13 @@
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
       <c r="E178" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F178" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H178" s="27"/>
     </row>
@@ -5611,13 +5554,13 @@
       <c r="C179" s="25"/>
       <c r="D179" s="25"/>
       <c r="E179" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H179" s="27"/>
     </row>
@@ -5627,11 +5570,11 @@
       <c r="C180" s="25"/>
       <c r="D180" s="25"/>
       <c r="E180" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F180" s="27"/>
       <c r="G180" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H180" s="27"/>
     </row>
@@ -5641,11 +5584,11 @@
       <c r="C181" s="25"/>
       <c r="D181" s="25"/>
       <c r="E181" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F181" s="27"/>
       <c r="G181" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H181" s="27"/>
     </row>
@@ -5655,13 +5598,13 @@
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
       <c r="E182" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F182" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G182" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H182" s="27"/>
     </row>
@@ -5671,13 +5614,13 @@
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
       <c r="E183" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F183" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G183" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H183" s="27"/>
     </row>
@@ -5687,11 +5630,11 @@
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
       <c r="E184" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F184" s="27"/>
       <c r="G184" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H184" s="27"/>
     </row>
@@ -5701,13 +5644,13 @@
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
       <c r="E185" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G185" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H185" s="27"/>
     </row>
@@ -5717,11 +5660,11 @@
       <c r="C186" s="25"/>
       <c r="D186" s="25"/>
       <c r="E186" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F186" s="27"/>
       <c r="G186" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H186" s="27"/>
     </row>
@@ -5743,13 +5686,13 @@
       <c r="C188" s="25"/>
       <c r="D188" s="25"/>
       <c r="E188" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F188" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G188" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H188" s="27"/>
     </row>
@@ -5759,13 +5702,13 @@
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
       <c r="E189" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G189" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H189" s="27"/>
     </row>
@@ -5775,11 +5718,11 @@
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
       <c r="E190" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F190" s="27"/>
       <c r="G190" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H190" s="27"/>
     </row>
@@ -5789,11 +5732,11 @@
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
       <c r="E191" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F191" s="27"/>
       <c r="G191" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H191" s="27"/>
     </row>
@@ -5803,13 +5746,13 @@
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
       <c r="E192" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G192" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H192" s="27"/>
     </row>
@@ -5819,13 +5762,13 @@
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
       <c r="E193" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G193" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H193" s="27"/>
     </row>
@@ -5835,11 +5778,11 @@
       <c r="C194" s="25"/>
       <c r="D194" s="25"/>
       <c r="E194" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F194" s="27"/>
       <c r="G194" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H194" s="27"/>
     </row>
@@ -5849,13 +5792,13 @@
       <c r="C195" s="25"/>
       <c r="D195" s="25"/>
       <c r="E195" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G195" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H195" s="27"/>
     </row>
@@ -5865,11 +5808,11 @@
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
       <c r="E196" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F196" s="27"/>
       <c r="G196" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H196" s="27"/>
     </row>
@@ -5893,13 +5836,13 @@
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
       <c r="E198" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G198" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H198" s="27"/>
     </row>
@@ -5909,13 +5852,13 @@
       <c r="C199" s="25"/>
       <c r="D199" s="25"/>
       <c r="E199" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G199" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H199" s="27"/>
     </row>
@@ -5925,11 +5868,11 @@
       <c r="C200" s="25"/>
       <c r="D200" s="25"/>
       <c r="E200" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F200" s="27"/>
       <c r="G200" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H200" s="27"/>
     </row>
@@ -5939,11 +5882,11 @@
       <c r="C201" s="25"/>
       <c r="D201" s="25"/>
       <c r="E201" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F201" s="27"/>
       <c r="G201" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H201" s="27"/>
     </row>
@@ -5953,13 +5896,13 @@
       <c r="C202" s="25"/>
       <c r="D202" s="25"/>
       <c r="E202" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G202" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H202" s="27"/>
     </row>
@@ -5969,13 +5912,13 @@
       <c r="C203" s="25"/>
       <c r="D203" s="25"/>
       <c r="E203" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G203" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H203" s="27"/>
     </row>
@@ -5985,13 +5928,13 @@
       <c r="C204" s="25"/>
       <c r="D204" s="25"/>
       <c r="E204" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F204" s="32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G204" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H204" s="27"/>
     </row>
@@ -6001,11 +5944,11 @@
       <c r="C205" s="25"/>
       <c r="D205" s="25"/>
       <c r="E205" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F205" s="27"/>
       <c r="G205" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H205" s="27"/>
     </row>
@@ -6015,13 +5958,13 @@
       <c r="C206" s="25"/>
       <c r="D206" s="25"/>
       <c r="E206" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G206" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H206" s="27"/>
     </row>
@@ -6031,11 +5974,11 @@
       <c r="C207" s="25"/>
       <c r="D207" s="25"/>
       <c r="E207" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F207" s="27"/>
       <c r="G207" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H207" s="27"/>
     </row>
@@ -6057,13 +6000,13 @@
       <c r="C209" s="25"/>
       <c r="D209" s="25"/>
       <c r="E209" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G209" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H209" s="27"/>
     </row>
@@ -6073,13 +6016,13 @@
       <c r="C210" s="25"/>
       <c r="D210" s="25"/>
       <c r="E210" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G210" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H210" s="27"/>
     </row>
@@ -6089,11 +6032,11 @@
       <c r="C211" s="25"/>
       <c r="D211" s="25"/>
       <c r="E211" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F211" s="27"/>
       <c r="G211" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H211" s="27"/>
     </row>
@@ -6103,11 +6046,11 @@
       <c r="C212" s="25"/>
       <c r="D212" s="25"/>
       <c r="E212" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F212" s="27"/>
       <c r="G212" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H212" s="27"/>
     </row>
@@ -6117,13 +6060,13 @@
       <c r="C213" s="25"/>
       <c r="D213" s="25"/>
       <c r="E213" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G213" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H213" s="27"/>
     </row>
@@ -6133,13 +6076,13 @@
       <c r="C214" s="25"/>
       <c r="D214" s="25"/>
       <c r="E214" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G214" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H214" s="27"/>
     </row>
@@ -6149,13 +6092,13 @@
       <c r="C215" s="25"/>
       <c r="D215" s="25"/>
       <c r="E215" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G215" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H215" s="27"/>
     </row>
@@ -6165,11 +6108,11 @@
       <c r="C216" s="25"/>
       <c r="D216" s="25"/>
       <c r="E216" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F216" s="27"/>
       <c r="G216" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H216" s="27"/>
     </row>
@@ -6179,13 +6122,13 @@
       <c r="C217" s="25"/>
       <c r="D217" s="25"/>
       <c r="E217" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G217" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H217" s="27"/>
     </row>
@@ -6195,11 +6138,11 @@
       <c r="C218" s="25"/>
       <c r="D218" s="25"/>
       <c r="E218" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F218" s="27"/>
       <c r="G218" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H218" s="27"/>
     </row>
@@ -6221,13 +6164,13 @@
       <c r="C220" s="25"/>
       <c r="D220" s="25"/>
       <c r="E220" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F220" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G220" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H220" s="27"/>
     </row>
@@ -6237,13 +6180,13 @@
       <c r="C221" s="25"/>
       <c r="D221" s="25"/>
       <c r="E221" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G221" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H221" s="27"/>
     </row>
@@ -6253,11 +6196,11 @@
       <c r="C222" s="25"/>
       <c r="D222" s="25"/>
       <c r="E222" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F222" s="27"/>
       <c r="G222" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H222" s="27"/>
     </row>
@@ -6267,11 +6210,11 @@
       <c r="C223" s="25"/>
       <c r="D223" s="25"/>
       <c r="E223" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F223" s="27"/>
       <c r="G223" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H223" s="27"/>
     </row>
@@ -6281,13 +6224,13 @@
       <c r="C224" s="25"/>
       <c r="D224" s="25"/>
       <c r="E224" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G224" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H224" s="27"/>
     </row>
@@ -6297,13 +6240,13 @@
       <c r="C225" s="25"/>
       <c r="D225" s="25"/>
       <c r="E225" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G225" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H225" s="27"/>
     </row>
@@ -6313,13 +6256,13 @@
       <c r="C226" s="25"/>
       <c r="D226" s="25"/>
       <c r="E226" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G226" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H226" s="27"/>
     </row>
@@ -6329,11 +6272,11 @@
       <c r="C227" s="25"/>
       <c r="D227" s="25"/>
       <c r="E227" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F227" s="27"/>
       <c r="G227" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H227" s="27"/>
     </row>
@@ -6343,13 +6286,13 @@
       <c r="C228" s="25"/>
       <c r="D228" s="25"/>
       <c r="E228" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G228" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H228" s="27"/>
     </row>
@@ -6359,11 +6302,11 @@
       <c r="C229" s="25"/>
       <c r="D229" s="25"/>
       <c r="E229" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F229" s="27"/>
       <c r="G229" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H229" s="27"/>
     </row>
@@ -6385,13 +6328,13 @@
       <c r="C231" s="25"/>
       <c r="D231" s="25"/>
       <c r="E231" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G231" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H231" s="27"/>
     </row>
@@ -6401,13 +6344,13 @@
       <c r="C232" s="25"/>
       <c r="D232" s="25"/>
       <c r="E232" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G232" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H232" s="27"/>
     </row>
@@ -6417,11 +6360,11 @@
       <c r="C233" s="25"/>
       <c r="D233" s="25"/>
       <c r="E233" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F233" s="27"/>
       <c r="G233" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H233" s="27"/>
     </row>
@@ -6431,11 +6374,11 @@
       <c r="C234" s="25"/>
       <c r="D234" s="25"/>
       <c r="E234" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F234" s="27"/>
       <c r="G234" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H234" s="27"/>
     </row>
@@ -6445,13 +6388,13 @@
       <c r="C235" s="25"/>
       <c r="D235" s="25"/>
       <c r="E235" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G235" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H235" s="27"/>
     </row>
@@ -6461,13 +6404,13 @@
       <c r="C236" s="25"/>
       <c r="D236" s="25"/>
       <c r="E236" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G236" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H236" s="27"/>
     </row>
@@ -6477,13 +6420,13 @@
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
       <c r="E237" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G237" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H237" s="27"/>
     </row>
@@ -6493,11 +6436,11 @@
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
       <c r="E238" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F238" s="27"/>
       <c r="G238" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H238" s="27"/>
     </row>
@@ -6507,13 +6450,13 @@
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
       <c r="E239" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G239" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H239" s="27"/>
     </row>
@@ -6523,11 +6466,11 @@
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
       <c r="E240" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F240" s="27"/>
       <c r="G240" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H240" s="27"/>
     </row>
@@ -6549,13 +6492,13 @@
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
       <c r="E242" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G242" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H242" s="27"/>
     </row>
@@ -6565,13 +6508,13 @@
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
       <c r="E243" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G243" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H243" s="27"/>
     </row>
@@ -6581,11 +6524,11 @@
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
       <c r="E244" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F244" s="27"/>
       <c r="G244" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H244" s="27"/>
     </row>
@@ -6595,11 +6538,11 @@
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
       <c r="E245" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F245" s="27"/>
       <c r="G245" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H245" s="27"/>
     </row>
@@ -6609,13 +6552,13 @@
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
       <c r="E246" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G246" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H246" s="27"/>
     </row>
@@ -6625,13 +6568,13 @@
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
       <c r="E247" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G247" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H247" s="27"/>
     </row>
@@ -6641,13 +6584,13 @@
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
       <c r="E248" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G248" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H248" s="27"/>
     </row>
@@ -6657,11 +6600,11 @@
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
       <c r="E249" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F249" s="27"/>
       <c r="G249" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H249" s="27"/>
     </row>
@@ -6671,13 +6614,13 @@
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
       <c r="E250" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G250" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H250" s="27"/>
     </row>
@@ -6687,11 +6630,11 @@
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
       <c r="E251" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F251" s="27"/>
       <c r="G251" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H251" s="27"/>
     </row>
@@ -6713,13 +6656,13 @@
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
       <c r="E253" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F253" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G253" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H253" s="27"/>
     </row>
@@ -6729,13 +6672,13 @@
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
       <c r="E254" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G254" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H254" s="27"/>
     </row>
@@ -6745,11 +6688,11 @@
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
       <c r="E255" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F255" s="27"/>
       <c r="G255" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H255" s="27"/>
     </row>
@@ -6759,11 +6702,11 @@
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
       <c r="E256" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F256" s="27"/>
       <c r="G256" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H256" s="27"/>
     </row>
@@ -6773,13 +6716,13 @@
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
       <c r="E257" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G257" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H257" s="27"/>
     </row>
@@ -6789,13 +6732,13 @@
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
       <c r="E258" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G258" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H258" s="27"/>
     </row>
@@ -6805,13 +6748,13 @@
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
       <c r="E259" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F259" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G259" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H259" s="27"/>
     </row>
@@ -6821,11 +6764,11 @@
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
       <c r="E260" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F260" s="27"/>
       <c r="G260" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H260" s="27"/>
     </row>
@@ -6835,13 +6778,13 @@
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
       <c r="E261" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G261" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H261" s="27"/>
     </row>
@@ -6851,11 +6794,11 @@
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
       <c r="E262" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F262" s="27"/>
       <c r="G262" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H262" s="27"/>
     </row>
@@ -6877,13 +6820,13 @@
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
       <c r="E264" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G264" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H264" s="27"/>
     </row>
@@ -6893,13 +6836,13 @@
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
       <c r="E265" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G265" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H265" s="27"/>
     </row>
@@ -6909,11 +6852,11 @@
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
       <c r="E266" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F266" s="27"/>
       <c r="G266" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H266" s="27"/>
     </row>
@@ -6923,11 +6866,11 @@
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
       <c r="E267" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F267" s="27"/>
       <c r="G267" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H267" s="27"/>
     </row>
@@ -6937,13 +6880,13 @@
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
       <c r="E268" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G268" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H268" s="27"/>
     </row>
@@ -6953,13 +6896,13 @@
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
       <c r="E269" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G269" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H269" s="27"/>
     </row>
@@ -6969,13 +6912,13 @@
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
       <c r="E270" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G270" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H270" s="27"/>
     </row>
@@ -6985,11 +6928,11 @@
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
       <c r="E271" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F271" s="27"/>
       <c r="G271" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H271" s="27"/>
     </row>
@@ -6999,13 +6942,13 @@
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
       <c r="E272" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G272" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H272" s="27"/>
     </row>
@@ -7015,11 +6958,11 @@
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
       <c r="E273" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F273" s="27"/>
       <c r="G273" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H273" s="27"/>
     </row>
@@ -7041,13 +6984,13 @@
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
       <c r="E275" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G275" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H275" s="27"/>
     </row>
@@ -7057,13 +7000,13 @@
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
       <c r="E276" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G276" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H276" s="27"/>
     </row>
@@ -7073,11 +7016,11 @@
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
       <c r="E277" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F277" s="27"/>
       <c r="G277" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H277" s="27"/>
     </row>
@@ -7087,11 +7030,11 @@
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
       <c r="E278" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F278" s="27"/>
       <c r="G278" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H278" s="27"/>
     </row>
@@ -7101,13 +7044,13 @@
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
       <c r="E279" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G279" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H279" s="27"/>
     </row>
@@ -7117,13 +7060,13 @@
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
       <c r="E280" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G280" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H280" s="27"/>
     </row>
@@ -7133,13 +7076,13 @@
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
       <c r="E281" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G281" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H281" s="27"/>
     </row>
@@ -7149,11 +7092,11 @@
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
       <c r="E282" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F282" s="27"/>
       <c r="G282" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H282" s="27"/>
     </row>
@@ -7163,13 +7106,13 @@
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
       <c r="E283" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G283" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H283" s="27"/>
     </row>
@@ -7179,11 +7122,11 @@
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
       <c r="E284" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F284" s="27"/>
       <c r="G284" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H284" s="27"/>
     </row>
@@ -7205,13 +7148,13 @@
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
       <c r="E286" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F286" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G286" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H286" s="27"/>
     </row>
@@ -7221,13 +7164,13 @@
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
       <c r="E287" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F287" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G287" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H287" s="27"/>
     </row>
@@ -7237,11 +7180,11 @@
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
       <c r="E288" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F288" s="27"/>
       <c r="G288" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H288" s="27"/>
     </row>
@@ -7251,11 +7194,11 @@
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
       <c r="E289" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F289" s="27"/>
       <c r="G289" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H289" s="27"/>
     </row>
@@ -7265,13 +7208,13 @@
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F290" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G290" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H290" s="27"/>
     </row>
@@ -7281,13 +7224,13 @@
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
       <c r="E291" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F291" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G291" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H291" s="27"/>
     </row>
@@ -7297,13 +7240,13 @@
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
       <c r="E292" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G292" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H292" s="27"/>
     </row>
@@ -7313,11 +7256,11 @@
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
       <c r="E293" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F293" s="27"/>
       <c r="G293" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H293" s="27"/>
     </row>
@@ -7327,13 +7270,13 @@
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
       <c r="E294" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F294" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G294" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H294" s="27"/>
     </row>
@@ -7343,11 +7286,11 @@
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
       <c r="E295" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F295" s="27"/>
       <c r="G295" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H295" s="27"/>
     </row>
@@ -7369,13 +7312,13 @@
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
       <c r="E297" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F297" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G297" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H297" s="27"/>
     </row>
@@ -7385,13 +7328,13 @@
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
       <c r="E298" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F298" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G298" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H298" s="27"/>
     </row>
@@ -7401,11 +7344,11 @@
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
       <c r="E299" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F299" s="27"/>
       <c r="G299" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H299" s="27"/>
     </row>
@@ -7415,11 +7358,11 @@
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
       <c r="E300" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F300" s="27"/>
       <c r="G300" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H300" s="27"/>
     </row>
@@ -7429,13 +7372,13 @@
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
       <c r="E301" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F301" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G301" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H301" s="27"/>
     </row>
@@ -7445,13 +7388,13 @@
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
       <c r="E302" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F302" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G302" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H302" s="27"/>
     </row>
@@ -7461,13 +7404,13 @@
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
       <c r="E303" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F303" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G303" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H303" s="27"/>
     </row>
@@ -7477,11 +7420,11 @@
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
       <c r="E304" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F304" s="27"/>
       <c r="G304" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H304" s="27"/>
     </row>
@@ -7491,13 +7434,13 @@
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
       <c r="E305" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F305" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G305" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H305" s="27"/>
     </row>
@@ -7507,11 +7450,11 @@
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
       <c r="E306" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F306" s="27"/>
       <c r="G306" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H306" s="27"/>
     </row>
@@ -7533,13 +7476,13 @@
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
       <c r="E308" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F308" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G308" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H308" s="27"/>
     </row>
@@ -7549,13 +7492,13 @@
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
       <c r="E309" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F309" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G309" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H309" s="27"/>
     </row>
@@ -7565,11 +7508,11 @@
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
       <c r="E310" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F310" s="27"/>
       <c r="G310" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H310" s="27"/>
     </row>
@@ -7579,11 +7522,11 @@
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
       <c r="E311" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F311" s="27"/>
       <c r="G311" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H311" s="27"/>
     </row>
@@ -7593,13 +7536,13 @@
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
       <c r="E312" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F312" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G312" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H312" s="27"/>
     </row>
@@ -7609,13 +7552,13 @@
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
       <c r="E313" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F313" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G313" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H313" s="27"/>
     </row>
@@ -7625,13 +7568,13 @@
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
       <c r="E314" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G314" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H314" s="27"/>
     </row>
@@ -7641,11 +7584,11 @@
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
       <c r="E315" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F315" s="27"/>
       <c r="G315" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H315" s="27"/>
     </row>
@@ -7655,13 +7598,13 @@
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
       <c r="E316" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F316" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G316" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H316" s="27"/>
     </row>
@@ -7671,11 +7614,11 @@
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
       <c r="E317" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F317" s="27"/>
       <c r="G317" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H317" s="27"/>
     </row>
@@ -7697,13 +7640,13 @@
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
       <c r="E319" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F319" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G319" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H319" s="27"/>
     </row>
@@ -7713,13 +7656,13 @@
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
       <c r="E320" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F320" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G320" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H320" s="27"/>
     </row>
@@ -7729,11 +7672,11 @@
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
       <c r="E321" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F321" s="27"/>
       <c r="G321" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H321" s="27"/>
     </row>
@@ -7743,11 +7686,11 @@
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
       <c r="E322" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F322" s="27"/>
       <c r="G322" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H322" s="27"/>
     </row>
@@ -7757,13 +7700,13 @@
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
       <c r="E323" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F323" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G323" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H323" s="27"/>
     </row>
@@ -7773,13 +7716,13 @@
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
       <c r="E324" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F324" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G324" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H324" s="27"/>
     </row>
@@ -7789,13 +7732,13 @@
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
       <c r="E325" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G325" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H325" s="27"/>
     </row>
@@ -7805,11 +7748,11 @@
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
       <c r="E326" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F326" s="27"/>
       <c r="G326" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H326" s="27"/>
     </row>
@@ -7819,13 +7762,13 @@
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
       <c r="E327" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F327" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G327" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H327" s="27"/>
     </row>
@@ -7835,11 +7778,11 @@
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
       <c r="E328" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F328" s="27"/>
       <c r="G328" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H328" s="27"/>
     </row>
@@ -7861,13 +7804,13 @@
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
       <c r="E330" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F330" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G330" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H330" s="27"/>
     </row>
@@ -7877,13 +7820,13 @@
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
       <c r="E331" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F331" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G331" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H331" s="27"/>
     </row>
@@ -7893,11 +7836,11 @@
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
       <c r="E332" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F332" s="27"/>
       <c r="G332" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H332" s="27"/>
     </row>
@@ -7907,11 +7850,11 @@
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
       <c r="E333" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F333" s="27"/>
       <c r="G333" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H333" s="27"/>
     </row>
@@ -7921,13 +7864,13 @@
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
       <c r="E334" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F334" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G334" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H334" s="27"/>
     </row>
@@ -7937,13 +7880,13 @@
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
       <c r="E335" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F335" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G335" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H335" s="27"/>
     </row>
@@ -7953,13 +7896,13 @@
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
       <c r="E336" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G336" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H336" s="27"/>
     </row>
@@ -7969,11 +7912,11 @@
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
       <c r="E337" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F337" s="27"/>
       <c r="G337" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H337" s="27"/>
     </row>
@@ -7983,13 +7926,13 @@
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
       <c r="E338" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F338" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G338" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H338" s="27"/>
     </row>
@@ -7999,11 +7942,11 @@
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
       <c r="E339" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F339" s="27"/>
       <c r="G339" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H339" s="27"/>
     </row>
@@ -8023,13 +7966,13 @@
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
       <c r="E341" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F341" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G341" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H341" s="27"/>
     </row>
@@ -8038,97 +7981,97 @@
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
       <c r="E342" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F342" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G342" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H342" s="27"/>
     </row>
-    <row r="343" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="25"/>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
       <c r="E343" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F343" s="27"/>
       <c r="G343" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H343" s="27"/>
     </row>
-    <row r="344" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="25"/>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
       <c r="E344" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F344" s="27"/>
       <c r="G344" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H344" s="27"/>
     </row>
-    <row r="345" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="25"/>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
       <c r="E345" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F345" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G345" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H345" s="27"/>
     </row>
-    <row r="346" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="25"/>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
       <c r="E346" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F346" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G346" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H346" s="27"/>
     </row>
-    <row r="347" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="25"/>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
       <c r="E347" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F347" s="27"/>
       <c r="G347" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H347" s="27"/>
     </row>
-    <row r="348" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="25"/>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
       <c r="E348" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F348" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G348" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H348" s="27"/>
     </row>
@@ -8137,11 +8080,11 @@
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
       <c r="E349" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F349" s="27"/>
       <c r="G349" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H349" s="27"/>
     </row>
@@ -8150,841 +8093,845 @@
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
       <c r="E350" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F350" s="27"/>
       <c r="G350" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H350" s="27"/>
     </row>
-    <row r="351" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="25"/>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
       <c r="E351" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F351" s="27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G351" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H351" s="27"/>
     </row>
-    <row r="352" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="25"/>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
       <c r="E352" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F352" s="27"/>
       <c r="G352" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H352" s="27"/>
     </row>
-    <row r="353" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="25"/>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
       <c r="E353" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F353" s="27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G353" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H353" s="27"/>
     </row>
-    <row r="354" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="25"/>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
       <c r="E354" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F354" s="27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G354" s="26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H354" s="27"/>
     </row>
-    <row r="355" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="25"/>
-      <c r="C355" s="25"/>
-      <c r="D355" s="25"/>
-      <c r="E355" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F355" s="27"/>
-      <c r="G355" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H355" s="27"/>
-    </row>
-    <row r="356" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="21"/>
+      <c r="C355" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D355" s="23"/>
+      <c r="E355" s="22"/>
+      <c r="F355" s="23"/>
+      <c r="G355" s="24"/>
+      <c r="H355" s="23"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="25"/>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
       <c r="E356" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F356" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F356" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G356" s="26" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="H356" s="27"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B357" s="21"/>
-      <c r="C357" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D357" s="23"/>
-      <c r="E357" s="22"/>
-      <c r="F357" s="23"/>
-      <c r="G357" s="24"/>
-      <c r="H357" s="23"/>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="25"/>
+      <c r="C357" s="25"/>
+      <c r="D357" s="25"/>
+      <c r="E357" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F357" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G357" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H357" s="27"/>
+    </row>
+    <row r="358" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="25"/>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
       <c r="E358" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F358" s="27" t="s">
-        <v>163</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F358" s="27"/>
       <c r="G358" s="26" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H358" s="27"/>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="25"/>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
       <c r="E359" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F359" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F359" s="27"/>
       <c r="G359" s="26" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H359" s="27"/>
     </row>
-    <row r="360" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="25"/>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
       <c r="E360" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F360" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F360" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G360" s="26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H360" s="27"/>
     </row>
-    <row r="361" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="25"/>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
       <c r="E361" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F361" s="27"/>
+        <v>177</v>
+      </c>
+      <c r="F361" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="G361" s="26" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H361" s="27"/>
     </row>
-    <row r="362" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="25"/>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
       <c r="E362" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F362" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F362" s="27"/>
       <c r="G362" s="26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H362" s="27"/>
     </row>
-    <row r="363" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="25"/>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
       <c r="E363" s="26" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F363" s="27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G363" s="26" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H363" s="27"/>
     </row>
-    <row r="364" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="25"/>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
       <c r="E364" s="26" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F364" s="27"/>
       <c r="G364" s="26" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H364" s="27"/>
     </row>
-    <row r="365" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="25"/>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
       <c r="E365" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F365" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F365" s="27"/>
       <c r="G365" s="26" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H365" s="27"/>
     </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="25"/>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
       <c r="E366" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F366" s="27"/>
+        <v>194</v>
+      </c>
+      <c r="F366" s="27" t="s">
+        <v>280</v>
+      </c>
       <c r="G366" s="26" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H366" s="27"/>
     </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="25"/>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
       <c r="E367" s="26" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F367" s="27"/>
       <c r="G367" s="26" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H367" s="27"/>
     </row>
-    <row r="368" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="25"/>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
       <c r="E368" s="26" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F368" s="27" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="G368" s="26" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H368" s="27"/>
     </row>
-    <row r="369" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="25"/>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
       <c r="E369" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F369" s="27"/>
+        <v>202</v>
+      </c>
+      <c r="F369" s="27" t="s">
+        <v>203</v>
+      </c>
       <c r="G369" s="26" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H369" s="27"/>
     </row>
-    <row r="370" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="25"/>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
       <c r="E370" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F370" s="27" t="s">
-        <v>198</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F370" s="27"/>
       <c r="G370" s="26" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="H370" s="27"/>
     </row>
-    <row r="371" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="25"/>
-      <c r="C371" s="25"/>
-      <c r="D371" s="25"/>
-      <c r="E371" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F371" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G371" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="H371" s="27"/>
-    </row>
-    <row r="372" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="21"/>
+      <c r="C371" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D371" s="23"/>
+      <c r="E371" s="22"/>
+      <c r="F371" s="23"/>
+      <c r="G371" s="24"/>
+      <c r="H371" s="23"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="25"/>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
       <c r="E372" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F372" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F372" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G372" s="26" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="H372" s="27"/>
     </row>
-    <row r="373" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="25"/>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
       <c r="E373" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F373" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F373" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G373" s="26" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="H373" s="27"/>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B374" s="21"/>
-      <c r="C374" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D374" s="23"/>
-      <c r="E374" s="22"/>
-      <c r="F374" s="23"/>
-      <c r="G374" s="24"/>
-      <c r="H374" s="23"/>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="25"/>
+      <c r="C374" s="25"/>
+      <c r="D374" s="25"/>
+      <c r="E374" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F374" s="27"/>
+      <c r="G374" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H374" s="27"/>
+    </row>
+    <row r="375" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="25"/>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
       <c r="E375" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F375" s="27" t="s">
-        <v>163</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F375" s="27"/>
       <c r="G375" s="26" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H375" s="27"/>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="25"/>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
       <c r="E376" s="26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F376" s="27" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G376" s="26" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H376" s="27"/>
     </row>
-    <row r="377" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="25"/>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
       <c r="E377" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F377" s="27"/>
+        <v>177</v>
+      </c>
+      <c r="F377" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="G377" s="26" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H377" s="27"/>
     </row>
-    <row r="378" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="25"/>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
       <c r="E378" s="26" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F378" s="27"/>
       <c r="G378" s="26" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H378" s="27"/>
     </row>
-    <row r="379" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="25"/>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
       <c r="E379" s="26" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F379" s="27" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G379" s="26" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H379" s="27"/>
     </row>
-    <row r="380" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="25"/>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
       <c r="E380" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F380" s="27" t="s">
-        <v>176</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F380" s="27"/>
       <c r="G380" s="26" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H380" s="27"/>
     </row>
-    <row r="381" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="25"/>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
       <c r="E381" s="26" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F381" s="27"/>
       <c r="G381" s="26" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="H381" s="27"/>
     </row>
-    <row r="382" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="25"/>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
       <c r="E382" s="26" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F382" s="27" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="G382" s="26" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="H382" s="27"/>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="25"/>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
       <c r="E383" s="26" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F383" s="27"/>
       <c r="G383" s="26" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H383" s="27"/>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="25"/>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
       <c r="E384" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F384" s="27"/>
+        <v>199</v>
+      </c>
+      <c r="F384" s="27" t="s">
+        <v>285</v>
+      </c>
       <c r="G384" s="26" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H384" s="27"/>
     </row>
-    <row r="385" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="25"/>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
       <c r="E385" s="26" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F385" s="27" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="G385" s="26" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H385" s="27"/>
     </row>
-    <row r="386" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="25"/>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
       <c r="E386" s="26" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="F386" s="27"/>
       <c r="G386" s="26" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="H386" s="27"/>
     </row>
-    <row r="387" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B387" s="25"/>
-      <c r="C387" s="25"/>
-      <c r="D387" s="25"/>
-      <c r="E387" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F387" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="G387" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="H387" s="27"/>
-    </row>
-    <row r="388" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="21"/>
+      <c r="C387" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D387" s="23"/>
+      <c r="E387" s="22"/>
+      <c r="F387" s="23"/>
+      <c r="G387" s="24"/>
+      <c r="H387" s="23"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="25"/>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
       <c r="E388" s="26" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="F388" s="27" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G388" s="26" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H388" s="27"/>
     </row>
-    <row r="389" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="25"/>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
       <c r="E389" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F389" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F389" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G389" s="26" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="H389" s="27"/>
     </row>
-    <row r="390" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="25"/>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
       <c r="E390" s="26" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F390" s="27"/>
       <c r="G390" s="26" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="H390" s="27"/>
     </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B391" s="21"/>
-      <c r="C391" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D391" s="23"/>
-      <c r="E391" s="22"/>
-      <c r="F391" s="23"/>
-      <c r="G391" s="24"/>
-      <c r="H391" s="23"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="25"/>
+      <c r="C391" s="25"/>
+      <c r="D391" s="25"/>
+      <c r="E391" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F391" s="27"/>
+      <c r="G391" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H391" s="27"/>
+    </row>
+    <row r="392" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="25"/>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
       <c r="E392" s="26" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F392" s="27" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G392" s="26" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H392" s="27"/>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="25"/>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
       <c r="E393" s="26" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F393" s="27" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G393" s="26" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H393" s="27"/>
     </row>
-    <row r="394" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="25"/>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
       <c r="E394" s="26" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F394" s="27"/>
       <c r="G394" s="26" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H394" s="27"/>
     </row>
-    <row r="395" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="25"/>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
       <c r="E395" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F395" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F395" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G395" s="26" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H395" s="27"/>
     </row>
-    <row r="396" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="25"/>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
       <c r="E396" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F396" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F396" s="27"/>
       <c r="G396" s="26" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H396" s="27"/>
     </row>
-    <row r="397" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="25"/>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
       <c r="E397" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F397" s="27" t="s">
-        <v>176</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F397" s="27"/>
       <c r="G397" s="26" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="H397" s="27"/>
     </row>
-    <row r="398" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="25"/>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
       <c r="E398" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F398" s="27"/>
+        <v>194</v>
+      </c>
+      <c r="F398" s="27" t="s">
+        <v>284</v>
+      </c>
       <c r="G398" s="26" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H398" s="27"/>
     </row>
-    <row r="399" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="25"/>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
       <c r="E399" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F399" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F399" s="27"/>
       <c r="G399" s="26" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H399" s="27"/>
     </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="25"/>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
       <c r="E400" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F400" s="27"/>
+        <v>199</v>
+      </c>
+      <c r="F400" s="27" t="s">
+        <v>200</v>
+      </c>
       <c r="G400" s="26" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H400" s="27"/>
     </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="25"/>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
       <c r="E401" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F401" s="27"/>
+        <v>202</v>
+      </c>
+      <c r="F401" s="27" t="s">
+        <v>287</v>
+      </c>
       <c r="G401" s="26" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H401" s="27"/>
     </row>
-    <row r="402" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="25"/>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
       <c r="E402" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F402" s="27" t="s">
-        <v>280</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F402" s="27"/>
       <c r="G402" s="26" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="H402" s="27"/>
     </row>
-    <row r="403" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B403" s="25"/>
-      <c r="C403" s="25"/>
-      <c r="D403" s="25"/>
-      <c r="E403" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F403" s="27"/>
-      <c r="G403" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="H403" s="27"/>
-    </row>
-    <row r="404" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="21"/>
+      <c r="C403" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D403" s="23"/>
+      <c r="E403" s="22"/>
+      <c r="F403" s="23"/>
+      <c r="G403" s="24"/>
+      <c r="H403" s="23"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="25"/>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
       <c r="E404" s="26" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F404" s="27" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="G404" s="26" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="H404" s="27"/>
     </row>
-    <row r="405" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="25"/>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
       <c r="E405" s="26" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F405" s="27" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="G405" s="26" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="H405" s="27"/>
     </row>
-    <row r="406" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="25"/>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
       <c r="E406" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F406" s="27"/>
       <c r="G406" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H406" s="27"/>
     </row>
-    <row r="407" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="25"/>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
       <c r="E407" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F407" s="27"/>
       <c r="G407" s="26" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="H407" s="27"/>
     </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="21"/>
-      <c r="C408" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D408" s="23"/>
-      <c r="E408" s="22"/>
-      <c r="F408" s="23"/>
-      <c r="G408" s="24"/>
-      <c r="H408" s="23"/>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="25"/>
+      <c r="C408" s="25"/>
+      <c r="D408" s="25"/>
+      <c r="E408" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F408" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G408" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H408" s="27"/>
+    </row>
+    <row r="409" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="25"/>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
       <c r="E409" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F409" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G409" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H409" s="27"/>
     </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="25"/>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
       <c r="E410" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F410" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F410" s="27"/>
       <c r="G410" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H410" s="27"/>
     </row>
@@ -8993,39 +8940,39 @@
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
       <c r="E411" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F411" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F411" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G411" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H411" s="27"/>
     </row>
-    <row r="412" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="25"/>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
       <c r="E412" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F412" s="27"/>
       <c r="G412" s="26" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="H412" s="27"/>
     </row>
-    <row r="413" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="25"/>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
       <c r="E413" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F413" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F413" s="27"/>
       <c r="G413" s="26" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="H413" s="27"/>
     </row>
@@ -9034,41 +8981,39 @@
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
       <c r="E414" s="26" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F414" s="27" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="G414" s="26" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="H414" s="27"/>
     </row>
-    <row r="415" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="25"/>
-      <c r="C415" s="25"/>
-      <c r="D415" s="25"/>
-      <c r="E415" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F415" s="27"/>
-      <c r="G415" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H415" s="27"/>
-    </row>
-    <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="21"/>
+      <c r="C415" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D415" s="23"/>
+      <c r="E415" s="22"/>
+      <c r="F415" s="23"/>
+      <c r="G415" s="24"/>
+      <c r="H415" s="23"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="25"/>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
       <c r="E416" s="26" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F416" s="27" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G416" s="26" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H416" s="27"/>
     </row>
@@ -9077,24 +9022,26 @@
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
       <c r="E417" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F417" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F417" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G417" s="26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H417" s="27"/>
     </row>
-    <row r="418" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="25"/>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
       <c r="E418" s="26" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="F418" s="27"/>
       <c r="G418" s="26" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="H418" s="27"/>
     </row>
@@ -9103,54 +9050,54 @@
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
       <c r="E419" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F419" s="27" t="s">
-        <v>285</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F419" s="27"/>
       <c r="G419" s="26" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H419" s="27"/>
     </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B420" s="21"/>
-      <c r="C420" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D420" s="23"/>
-      <c r="E420" s="22"/>
-      <c r="F420" s="23"/>
-      <c r="G420" s="24"/>
-      <c r="H420" s="23"/>
-    </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="25"/>
+      <c r="C420" s="25"/>
+      <c r="D420" s="25"/>
+      <c r="E420" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F420" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G420" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H420" s="27"/>
+    </row>
+    <row r="421" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="25"/>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
       <c r="E421" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F421" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G421" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H421" s="27"/>
     </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="25"/>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
       <c r="E422" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F422" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F422" s="27"/>
       <c r="G422" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H422" s="27"/>
     </row>
@@ -9159,39 +9106,39 @@
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
       <c r="E423" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F423" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F423" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G423" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H423" s="27"/>
     </row>
-    <row r="424" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="25"/>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
       <c r="E424" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F424" s="27"/>
       <c r="G424" s="26" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="H424" s="27"/>
     </row>
-    <row r="425" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="25"/>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
       <c r="E425" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F425" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F425" s="27"/>
       <c r="G425" s="26" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="H425" s="27"/>
     </row>
@@ -9200,41 +9147,39 @@
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
       <c r="E426" s="26" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F426" s="27" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="G426" s="26" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="H426" s="27"/>
     </row>
-    <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="25"/>
-      <c r="C427" s="25"/>
-      <c r="D427" s="25"/>
-      <c r="E427" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F427" s="27"/>
-      <c r="G427" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H427" s="27"/>
-    </row>
-    <row r="428" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="21"/>
+      <c r="C427" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D427" s="23"/>
+      <c r="E427" s="22"/>
+      <c r="F427" s="23"/>
+      <c r="G427" s="24"/>
+      <c r="H427" s="23"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="25"/>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
       <c r="E428" s="26" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F428" s="27" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G428" s="26" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H428" s="27"/>
     </row>
@@ -9243,24 +9188,26 @@
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
       <c r="E429" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F429" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F429" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G429" s="26" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H429" s="27"/>
     </row>
-    <row r="430" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="25"/>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
       <c r="E430" s="26" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="F430" s="27"/>
       <c r="G430" s="26" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="H430" s="27"/>
     </row>
@@ -9269,54 +9216,54 @@
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
       <c r="E431" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F431" s="27" t="s">
-        <v>285</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F431" s="27"/>
       <c r="G431" s="26" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H431" s="27"/>
     </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B432" s="21"/>
-      <c r="C432" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D432" s="23"/>
-      <c r="E432" s="22"/>
-      <c r="F432" s="23"/>
-      <c r="G432" s="24"/>
-      <c r="H432" s="23"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="25"/>
+      <c r="C432" s="25"/>
+      <c r="D432" s="25"/>
+      <c r="E432" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F432" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G432" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H432" s="27"/>
+    </row>
+    <row r="433" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="25"/>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
       <c r="E433" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F433" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G433" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H433" s="27"/>
     </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="25"/>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
       <c r="E434" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F434" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F434" s="27"/>
       <c r="G434" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H434" s="27"/>
     </row>
@@ -9325,11 +9272,13 @@
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
       <c r="E435" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F435" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F435" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G435" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H435" s="27"/>
     </row>
@@ -9338,11 +9287,11 @@
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
       <c r="E436" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F436" s="27"/>
       <c r="G436" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H436" s="27"/>
     </row>
@@ -9351,13 +9300,11 @@
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
       <c r="E437" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F437" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F437" s="27"/>
       <c r="G437" s="26" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="H437" s="27"/>
     </row>
@@ -9366,67 +9313,65 @@
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
       <c r="E438" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F438" s="27" t="s">
-        <v>176</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F438" s="27"/>
       <c r="G438" s="26" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="H438" s="27"/>
     </row>
-    <row r="439" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="25"/>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
       <c r="E439" s="26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F439" s="27"/>
       <c r="G439" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H439" s="27"/>
-    </row>
-    <row r="440" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="25"/>
-      <c r="C440" s="25"/>
-      <c r="D440" s="25"/>
-      <c r="E440" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F440" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="G440" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H440" s="27"/>
-    </row>
-    <row r="441" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+      <c r="H439" s="1"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="21"/>
+      <c r="C440" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D440" s="23"/>
+      <c r="E440" s="22"/>
+      <c r="F440" s="23"/>
+      <c r="G440" s="24"/>
+      <c r="H440" s="23"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="25"/>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
       <c r="E441" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F441" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F441" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G441" s="26" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="H441" s="27"/>
     </row>
-    <row r="442" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="25"/>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
       <c r="E442" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F442" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F442" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G442" s="26" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="H442" s="27"/>
     </row>
@@ -9435,65 +9380,67 @@
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
       <c r="E443" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F443" s="27"/>
       <c r="G443" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H443" s="27"/>
     </row>
-    <row r="444" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="25"/>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
       <c r="E444" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F444" s="27"/>
       <c r="G444" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H444" s="1"/>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="21"/>
-      <c r="C445" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D445" s="23"/>
-      <c r="E445" s="22"/>
-      <c r="F445" s="23"/>
-      <c r="G445" s="24"/>
-      <c r="H445" s="23"/>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="H444" s="27"/>
+    </row>
+    <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="25"/>
+      <c r="C445" s="25"/>
+      <c r="D445" s="25"/>
+      <c r="E445" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F445" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G445" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H445" s="27"/>
+    </row>
+    <row r="446" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="25"/>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
       <c r="E446" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F446" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G446" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H446" s="27"/>
     </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="25"/>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
       <c r="E447" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F447" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F447" s="27"/>
       <c r="G447" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H447" s="27"/>
     </row>
@@ -9502,11 +9449,13 @@
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
       <c r="E448" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F448" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F448" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G448" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H448" s="27"/>
     </row>
@@ -9515,11 +9464,11 @@
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
       <c r="E449" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F449" s="27"/>
       <c r="G449" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H449" s="27"/>
     </row>
@@ -9528,13 +9477,11 @@
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
       <c r="E450" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F450" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F450" s="27"/>
       <c r="G450" s="26" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="H450" s="27"/>
     </row>
@@ -9543,13 +9490,13 @@
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
       <c r="E451" s="26" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F451" s="27" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="G451" s="26" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="H451" s="27"/>
     </row>
@@ -9558,67 +9505,65 @@
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
       <c r="E452" s="26" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F452" s="27"/>
       <c r="G452" s="26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H452" s="27"/>
     </row>
-    <row r="453" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="25"/>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
       <c r="E453" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F453" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F453" s="27"/>
       <c r="G453" s="26" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H453" s="27"/>
     </row>
-    <row r="454" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="25"/>
-      <c r="C454" s="25"/>
-      <c r="D454" s="25"/>
-      <c r="E454" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F454" s="27"/>
-      <c r="G454" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H454" s="27"/>
-    </row>
-    <row r="455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="21"/>
+      <c r="C454" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D454" s="23"/>
+      <c r="E454" s="22"/>
+      <c r="F454" s="23"/>
+      <c r="G454" s="24"/>
+      <c r="H454" s="23"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="25"/>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
       <c r="E455" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F455" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F455" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G455" s="26" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="H455" s="27"/>
     </row>
-    <row r="456" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="25"/>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
       <c r="E456" s="26" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="F456" s="27" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="G456" s="26" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="H456" s="27"/>
     </row>
@@ -9627,65 +9572,67 @@
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
       <c r="E457" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F457" s="27"/>
       <c r="G457" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H457" s="27"/>
     </row>
-    <row r="458" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="25"/>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
       <c r="E458" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F458" s="27"/>
       <c r="G458" s="26" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="H458" s="27"/>
     </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="21"/>
-      <c r="C459" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D459" s="23"/>
-      <c r="E459" s="22"/>
-      <c r="F459" s="23"/>
-      <c r="G459" s="24"/>
-      <c r="H459" s="23"/>
-    </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="25"/>
+      <c r="C459" s="25"/>
+      <c r="D459" s="25"/>
+      <c r="E459" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F459" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G459" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H459" s="27"/>
+    </row>
+    <row r="460" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="25"/>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
       <c r="E460" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F460" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G460" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H460" s="27"/>
     </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="25"/>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
       <c r="E461" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F461" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F461" s="27"/>
       <c r="G461" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H461" s="27"/>
     </row>
@@ -9694,11 +9641,13 @@
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
       <c r="E462" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F462" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F462" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G462" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H462" s="27"/>
     </row>
@@ -9707,11 +9656,11 @@
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
       <c r="E463" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F463" s="27"/>
       <c r="G463" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H463" s="27"/>
     </row>
@@ -9720,13 +9669,11 @@
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
       <c r="E464" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F464" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F464" s="27"/>
       <c r="G464" s="26" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="H464" s="27"/>
     </row>
@@ -9735,13 +9682,13 @@
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
       <c r="E465" s="26" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F465" s="27" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="G465" s="26" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="H465" s="27"/>
     </row>
@@ -9750,67 +9697,65 @@
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
       <c r="E466" s="26" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F466" s="27"/>
       <c r="G466" s="26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H466" s="27"/>
     </row>
-    <row r="467" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="25"/>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
       <c r="E467" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F467" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F467" s="27"/>
       <c r="G467" s="26" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H467" s="27"/>
     </row>
-    <row r="468" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B468" s="25"/>
-      <c r="C468" s="25"/>
-      <c r="D468" s="25"/>
-      <c r="E468" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F468" s="27"/>
-      <c r="G468" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H468" s="27"/>
-    </row>
-    <row r="469" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="21"/>
+      <c r="C468" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D468" s="23"/>
+      <c r="E468" s="22"/>
+      <c r="F468" s="23"/>
+      <c r="G468" s="24"/>
+      <c r="H468" s="23"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="25"/>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
       <c r="E469" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F469" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F469" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G469" s="26" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="H469" s="27"/>
     </row>
-    <row r="470" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="25"/>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
       <c r="E470" s="26" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="F470" s="27" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="G470" s="26" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="H470" s="27"/>
     </row>
@@ -9819,65 +9764,67 @@
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
       <c r="E471" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F471" s="27"/>
       <c r="G471" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H471" s="27"/>
     </row>
-    <row r="472" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="25"/>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
       <c r="E472" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F472" s="27"/>
       <c r="G472" s="26" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="H472" s="27"/>
     </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="21"/>
-      <c r="C473" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D473" s="23"/>
-      <c r="E473" s="22"/>
-      <c r="F473" s="23"/>
-      <c r="G473" s="24"/>
-      <c r="H473" s="23"/>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="25"/>
+      <c r="C473" s="25"/>
+      <c r="D473" s="25"/>
+      <c r="E473" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F473" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G473" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H473" s="27"/>
+    </row>
+    <row r="474" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="25"/>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
       <c r="E474" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F474" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G474" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H474" s="27"/>
     </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="25"/>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
       <c r="E475" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F475" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F475" s="27"/>
       <c r="G475" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H475" s="27"/>
     </row>
@@ -9886,11 +9833,13 @@
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
       <c r="E476" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F476" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F476" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G476" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H476" s="27"/>
     </row>
@@ -9899,11 +9848,11 @@
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
       <c r="E477" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F477" s="27"/>
       <c r="G477" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H477" s="27"/>
     </row>
@@ -9912,13 +9861,11 @@
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
       <c r="E478" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F478" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F478" s="27"/>
       <c r="G478" s="26" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="H478" s="27"/>
     </row>
@@ -9927,13 +9874,13 @@
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
       <c r="E479" s="26" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F479" s="27" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="G479" s="26" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="H479" s="27"/>
     </row>
@@ -9942,67 +9889,65 @@
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
       <c r="E480" s="26" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F480" s="27"/>
       <c r="G480" s="26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H480" s="27"/>
     </row>
-    <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="25"/>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
       <c r="E481" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F481" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F481" s="27"/>
       <c r="G481" s="26" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H481" s="27"/>
     </row>
-    <row r="482" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="25"/>
-      <c r="C482" s="25"/>
-      <c r="D482" s="25"/>
-      <c r="E482" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F482" s="27"/>
-      <c r="G482" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H482" s="27"/>
-    </row>
-    <row r="483" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="21"/>
+      <c r="C482" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D482" s="23"/>
+      <c r="E482" s="22"/>
+      <c r="F482" s="23"/>
+      <c r="G482" s="24"/>
+      <c r="H482" s="23"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="25"/>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F483" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F483" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G483" s="26" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="H483" s="27"/>
     </row>
-    <row r="484" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="25"/>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
       <c r="E484" s="26" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="F484" s="27" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="G484" s="26" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="H484" s="27"/>
     </row>
@@ -10011,65 +9956,67 @@
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
       <c r="E485" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F485" s="27"/>
       <c r="G485" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H485" s="27"/>
     </row>
-    <row r="486" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="25"/>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
       <c r="E486" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F486" s="27"/>
       <c r="G486" s="26" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="H486" s="27"/>
     </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="21"/>
-      <c r="C487" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D487" s="23"/>
-      <c r="E487" s="22"/>
-      <c r="F487" s="23"/>
-      <c r="G487" s="24"/>
-      <c r="H487" s="23"/>
-    </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="25"/>
+      <c r="C487" s="25"/>
+      <c r="D487" s="25"/>
+      <c r="E487" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F487" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G487" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H487" s="27"/>
+    </row>
+    <row r="488" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="25"/>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
       <c r="E488" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F488" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G488" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H488" s="27"/>
     </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="25"/>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
       <c r="E489" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F489" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F489" s="27"/>
       <c r="G489" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H489" s="27"/>
     </row>
@@ -10078,11 +10025,13 @@
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
       <c r="E490" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F490" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F490" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G490" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H490" s="27"/>
     </row>
@@ -10091,11 +10040,11 @@
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
       <c r="E491" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F491" s="27"/>
       <c r="G491" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H491" s="27"/>
     </row>
@@ -10104,13 +10053,11 @@
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
       <c r="E492" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F492" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F492" s="27"/>
       <c r="G492" s="26" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="H492" s="27"/>
     </row>
@@ -10119,13 +10066,13 @@
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
       <c r="E493" s="26" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F493" s="27" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="G493" s="26" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="H493" s="27"/>
     </row>
@@ -10134,67 +10081,65 @@
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
       <c r="E494" s="26" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F494" s="27"/>
       <c r="G494" s="26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H494" s="27"/>
     </row>
-    <row r="495" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="25"/>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
       <c r="E495" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F495" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F495" s="27"/>
       <c r="G495" s="26" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H495" s="27"/>
     </row>
-    <row r="496" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="25"/>
-      <c r="C496" s="25"/>
-      <c r="D496" s="25"/>
-      <c r="E496" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F496" s="27"/>
-      <c r="G496" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H496" s="27"/>
-    </row>
-    <row r="497" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="21"/>
+      <c r="C496" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D496" s="23"/>
+      <c r="E496" s="22"/>
+      <c r="F496" s="23"/>
+      <c r="G496" s="24"/>
+      <c r="H496" s="23"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="25"/>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
       <c r="E497" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F497" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F497" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G497" s="26" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="H497" s="27"/>
     </row>
-    <row r="498" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="25"/>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
       <c r="E498" s="26" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="F498" s="27" t="s">
-        <v>298</v>
+        <v>168</v>
       </c>
       <c r="G498" s="26" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="H498" s="27"/>
     </row>
@@ -10203,65 +10148,67 @@
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
       <c r="E499" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F499" s="27"/>
       <c r="G499" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H499" s="27"/>
     </row>
-    <row r="500" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="25"/>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
       <c r="E500" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F500" s="27"/>
       <c r="G500" s="26" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="H500" s="27"/>
     </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="21"/>
-      <c r="C501" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D501" s="23"/>
-      <c r="E501" s="22"/>
-      <c r="F501" s="23"/>
-      <c r="G501" s="24"/>
-      <c r="H501" s="23"/>
-    </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="25"/>
+      <c r="C501" s="25"/>
+      <c r="D501" s="25"/>
+      <c r="E501" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F501" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G501" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H501" s="27"/>
+    </row>
+    <row r="502" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="25"/>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
       <c r="E502" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F502" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G502" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H502" s="27"/>
     </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="25"/>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
       <c r="E503" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F503" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F503" s="27"/>
       <c r="G503" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H503" s="27"/>
     </row>
@@ -10270,11 +10217,13 @@
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
       <c r="E504" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F504" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F504" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G504" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H504" s="27"/>
     </row>
@@ -10283,11 +10232,11 @@
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
       <c r="E505" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F505" s="27"/>
       <c r="G505" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H505" s="27"/>
     </row>
@@ -10296,13 +10245,11 @@
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
       <c r="E506" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F506" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F506" s="27"/>
       <c r="G506" s="26" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="H506" s="27"/>
     </row>
@@ -10311,13 +10258,13 @@
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
       <c r="E507" s="26" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F507" s="27" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="G507" s="26" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="H507" s="27"/>
     </row>
@@ -10326,67 +10273,65 @@
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
       <c r="E508" s="26" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F508" s="27"/>
       <c r="G508" s="26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H508" s="27"/>
     </row>
-    <row r="509" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="25"/>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
       <c r="E509" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F509" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F509" s="27"/>
       <c r="G509" s="26" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H509" s="27"/>
     </row>
-    <row r="510" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="25"/>
-      <c r="C510" s="25"/>
-      <c r="D510" s="25"/>
-      <c r="E510" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F510" s="27"/>
-      <c r="G510" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H510" s="27"/>
-    </row>
-    <row r="511" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="21"/>
+      <c r="C510" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D510" s="23"/>
+      <c r="E510" s="22"/>
+      <c r="F510" s="23"/>
+      <c r="G510" s="24"/>
+      <c r="H510" s="23"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="25"/>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
       <c r="E511" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F511" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F511" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G511" s="26" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="H511" s="27"/>
     </row>
-    <row r="512" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="25"/>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
       <c r="E512" s="26" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="F512" s="27" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="G512" s="26" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="H512" s="27"/>
     </row>
@@ -10395,65 +10340,67 @@
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
       <c r="E513" s="26" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F513" s="27"/>
       <c r="G513" s="26" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="H513" s="27"/>
     </row>
-    <row r="514" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="25"/>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
       <c r="E514" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F514" s="27"/>
       <c r="G514" s="26" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="H514" s="27"/>
     </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="21"/>
-      <c r="C515" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D515" s="23"/>
-      <c r="E515" s="22"/>
-      <c r="F515" s="23"/>
-      <c r="G515" s="24"/>
-      <c r="H515" s="23"/>
-    </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="25"/>
+      <c r="C515" s="25"/>
+      <c r="D515" s="25"/>
+      <c r="E515" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F515" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G515" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H515" s="27"/>
+    </row>
+    <row r="516" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="25"/>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
       <c r="E516" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F516" s="27" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G516" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H516" s="27"/>
     </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="25"/>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
       <c r="E517" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F517" s="27" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F517" s="27"/>
       <c r="G517" s="26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H517" s="27"/>
     </row>
@@ -10462,11 +10409,13 @@
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
       <c r="E518" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F518" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F518" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G518" s="26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H518" s="27"/>
     </row>
@@ -10475,11 +10424,11 @@
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
       <c r="E519" s="26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F519" s="27"/>
       <c r="G519" s="26" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="H519" s="27"/>
     </row>
@@ -10488,13 +10437,11 @@
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
       <c r="E520" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F520" s="27" t="s">
-        <v>173</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="F520" s="27"/>
       <c r="G520" s="26" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="H520" s="27"/>
     </row>
@@ -10503,13 +10450,13 @@
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
       <c r="E521" s="26" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F521" s="27" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="G521" s="26" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="H521" s="27"/>
     </row>
@@ -10518,95 +10465,26 @@
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
       <c r="E522" s="26" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F522" s="27"/>
       <c r="G522" s="26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H522" s="27"/>
     </row>
-    <row r="523" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="25"/>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
       <c r="E523" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F523" s="27" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F523" s="27"/>
       <c r="G523" s="26" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="H523" s="27"/>
-    </row>
-    <row r="524" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="25"/>
-      <c r="C524" s="25"/>
-      <c r="D524" s="25"/>
-      <c r="E524" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F524" s="27"/>
-      <c r="G524" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H524" s="27"/>
-    </row>
-    <row r="525" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="25"/>
-      <c r="C525" s="25"/>
-      <c r="D525" s="25"/>
-      <c r="E525" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F525" s="27"/>
-      <c r="G525" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H525" s="27"/>
-    </row>
-    <row r="526" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="25"/>
-      <c r="C526" s="25"/>
-      <c r="D526" s="25"/>
-      <c r="E526" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F526" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="G526" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="H526" s="27"/>
-    </row>
-    <row r="527" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="25"/>
-      <c r="C527" s="25"/>
-      <c r="D527" s="25"/>
-      <c r="E527" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F527" s="27"/>
-      <c r="G527" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H527" s="27"/>
-    </row>
-    <row r="528" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="25"/>
-      <c r="C528" s="25"/>
-      <c r="D528" s="25"/>
-      <c r="E528" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F528" s="27"/>
-      <c r="G528" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H528" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -10643,19 +10521,19 @@
     <mergeCell ref="B308:D317"/>
     <mergeCell ref="B319:D328"/>
     <mergeCell ref="B330:D339"/>
-    <mergeCell ref="B341:D356"/>
-    <mergeCell ref="B358:D373"/>
-    <mergeCell ref="B375:D390"/>
-    <mergeCell ref="B392:D407"/>
-    <mergeCell ref="B409:D419"/>
-    <mergeCell ref="B421:D431"/>
-    <mergeCell ref="B433:D444"/>
-    <mergeCell ref="B446:D458"/>
-    <mergeCell ref="B460:D472"/>
-    <mergeCell ref="B474:D486"/>
-    <mergeCell ref="B488:D500"/>
-    <mergeCell ref="B502:D514"/>
-    <mergeCell ref="B516:D528"/>
+    <mergeCell ref="B341:D354"/>
+    <mergeCell ref="B356:D370"/>
+    <mergeCell ref="B372:D386"/>
+    <mergeCell ref="B388:D402"/>
+    <mergeCell ref="B404:D414"/>
+    <mergeCell ref="B416:D426"/>
+    <mergeCell ref="B428:D439"/>
+    <mergeCell ref="B441:D453"/>
+    <mergeCell ref="B455:D467"/>
+    <mergeCell ref="B469:D481"/>
+    <mergeCell ref="B483:D495"/>
+    <mergeCell ref="B497:D509"/>
+    <mergeCell ref="B511:D523"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" display="email = imeprezime@domen.com"/>

--- a/ZavrsniProjekat/Docs/TestData.xlsx
+++ b/ZavrsniProjekat/Docs/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="309">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -927,6 +927,9 @@
     <t xml:space="preserve">date = 32</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify that user can change years using date picker arrows</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on the arrow pointing left in the date picker box and continue clicking until previous year is displayed</t>
   </si>
   <si>
@@ -934,6 +937,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date = 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected date visible in date picker field </t>
   </si>
   <si>
     <t xml:space="preserve">Click on the arrow pointing right in the date picker box and continue clicking until the next year is displayed</t>
@@ -1507,12 +1513,12 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
@@ -2297,7 +2303,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E38" s="5" t="b">
+      <c r="E38" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F38" s="5" t="n">
@@ -2337,7 +2344,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="b">
+      <c r="E40" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F40" s="5" t="n">
@@ -2357,7 +2365,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E41" s="5" t="b">
+      <c r="E41" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
@@ -2941,13 +2950,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A396" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A403" activeCellId="0" sqref="A403"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A348" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B419" activeCellId="0" sqref="B419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.54"/>
@@ -8828,7 +8837,7 @@
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="21"/>
       <c r="C403" s="34" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="D403" s="23"/>
       <c r="E403" s="22"/>
@@ -8968,11 +8977,11 @@
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
       <c r="E413" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F413" s="27"/>
       <c r="G413" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H413" s="27"/>
     </row>
@@ -8984,92 +8993,92 @@
         <v>202</v>
       </c>
       <c r="F414" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G414" s="26" t="s">
         <v>204</v>
       </c>
       <c r="H414" s="27"/>
     </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="21"/>
-      <c r="C415" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D415" s="23"/>
-      <c r="E415" s="22"/>
-      <c r="F415" s="23"/>
-      <c r="G415" s="24"/>
-      <c r="H415" s="23"/>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="25"/>
+      <c r="C415" s="25"/>
+      <c r="D415" s="25"/>
+      <c r="E415" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="F415" s="27"/>
+      <c r="G415" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H415" s="27"/>
+    </row>
+    <row r="416" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="25"/>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
       <c r="E416" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F416" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F416" s="27"/>
       <c r="G416" s="26" t="s">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="H416" s="27"/>
     </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="25"/>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
       <c r="E417" s="26" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="F417" s="27" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="G417" s="26" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="H417" s="27"/>
     </row>
-    <row r="418" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B418" s="25"/>
-      <c r="C418" s="25"/>
-      <c r="D418" s="25"/>
-      <c r="E418" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F418" s="27"/>
-      <c r="G418" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H418" s="27"/>
-    </row>
-    <row r="419" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="21"/>
+      <c r="C418" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D418" s="23"/>
+      <c r="E418" s="22"/>
+      <c r="F418" s="23"/>
+      <c r="G418" s="24"/>
+      <c r="H418" s="23"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="25"/>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
       <c r="E419" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F419" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="F419" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G419" s="26" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H419" s="27"/>
     </row>
-    <row r="420" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="25"/>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
       <c r="E420" s="26" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F420" s="27" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G420" s="26" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H420" s="27"/>
     </row>
@@ -9078,13 +9087,11 @@
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
       <c r="E421" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F421" s="27" t="s">
-        <v>178</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F421" s="27"/>
       <c r="G421" s="26" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H421" s="27"/>
     </row>
@@ -9093,11 +9100,11 @@
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
       <c r="E422" s="26" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F422" s="27"/>
       <c r="G422" s="26" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H422" s="27"/>
     </row>
@@ -9106,39 +9113,41 @@
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
       <c r="E423" s="26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F423" s="27" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G423" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H423" s="27"/>
     </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="25"/>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
       <c r="E424" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F424" s="27"/>
+        <v>177</v>
+      </c>
+      <c r="F424" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="G424" s="26" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H424" s="27"/>
     </row>
-    <row r="425" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="25"/>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
       <c r="E425" s="26" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="F425" s="27"/>
       <c r="G425" s="26" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="H425" s="27"/>
     </row>
@@ -9147,110 +9156,106 @@
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
       <c r="E426" s="26" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F426" s="27" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="G426" s="26" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H426" s="27"/>
     </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="21"/>
-      <c r="C427" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D427" s="23"/>
-      <c r="E427" s="22"/>
-      <c r="F427" s="23"/>
-      <c r="G427" s="24"/>
-      <c r="H427" s="23"/>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="25"/>
+      <c r="C427" s="25"/>
+      <c r="D427" s="25"/>
+      <c r="E427" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F427" s="27"/>
+      <c r="G427" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H427" s="27"/>
+    </row>
+    <row r="428" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="25"/>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
       <c r="E428" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F428" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F428" s="27"/>
       <c r="G428" s="26" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="H428" s="27"/>
     </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="25"/>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
       <c r="E429" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F429" s="27" t="s">
-        <v>168</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F429" s="27"/>
       <c r="G429" s="26" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="H429" s="27"/>
     </row>
-    <row r="430" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="25"/>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
       <c r="E430" s="26" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F430" s="27"/>
       <c r="G430" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H430" s="27"/>
-    </row>
-    <row r="431" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B431" s="25"/>
-      <c r="C431" s="25"/>
-      <c r="D431" s="25"/>
-      <c r="E431" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F431" s="27"/>
-      <c r="G431" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H431" s="27"/>
-    </row>
-    <row r="432" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+      <c r="H430" s="1"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="21"/>
+      <c r="C431" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D431" s="23"/>
+      <c r="E431" s="22"/>
+      <c r="F431" s="23"/>
+      <c r="G431" s="24"/>
+      <c r="H431" s="23"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="25"/>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
       <c r="E432" s="26" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F432" s="27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G432" s="26" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H432" s="27"/>
     </row>
-    <row r="433" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="25"/>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
       <c r="E433" s="26" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F433" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G433" s="26" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H433" s="27"/>
     </row>
@@ -9259,11 +9264,11 @@
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
       <c r="E434" s="26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F434" s="27"/>
       <c r="G434" s="26" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H434" s="27"/>
     </row>
@@ -9272,13 +9277,11 @@
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
       <c r="E435" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F435" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F435" s="27"/>
       <c r="G435" s="26" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H435" s="27"/>
     </row>
@@ -9287,11 +9290,13 @@
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
       <c r="E436" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F436" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F436" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G436" s="26" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="H436" s="27"/>
     </row>
@@ -9300,11 +9305,13 @@
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
       <c r="E437" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F437" s="27"/>
+        <v>177</v>
+      </c>
+      <c r="F437" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="G437" s="26" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="H437" s="27"/>
     </row>
@@ -9313,65 +9320,67 @@
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
       <c r="E438" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F438" s="27"/>
       <c r="G438" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H438" s="27"/>
     </row>
-    <row r="439" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="25"/>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
       <c r="E439" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F439" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F439" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G439" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="H439" s="1"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="21"/>
-      <c r="C440" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D440" s="23"/>
-      <c r="E440" s="22"/>
-      <c r="F440" s="23"/>
-      <c r="G440" s="24"/>
-      <c r="H440" s="23"/>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="H439" s="27"/>
+    </row>
+    <row r="440" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="25"/>
+      <c r="C440" s="25"/>
+      <c r="D440" s="25"/>
+      <c r="E440" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F440" s="27"/>
+      <c r="G440" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H440" s="27"/>
+    </row>
+    <row r="441" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="25"/>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
       <c r="E441" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F441" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F441" s="27"/>
       <c r="G441" s="26" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H441" s="27"/>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="25"/>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
       <c r="E442" s="26" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="F442" s="27" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="G442" s="26" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H442" s="27"/>
     </row>
@@ -9380,67 +9389,65 @@
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
       <c r="E443" s="26" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F443" s="27"/>
       <c r="G443" s="26" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H443" s="27"/>
     </row>
-    <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="25"/>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
       <c r="E444" s="26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F444" s="27"/>
       <c r="G444" s="26" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="H444" s="27"/>
     </row>
-    <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="25"/>
-      <c r="C445" s="25"/>
-      <c r="D445" s="25"/>
-      <c r="E445" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F445" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G445" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H445" s="27"/>
-    </row>
-    <row r="446" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="21"/>
+      <c r="C445" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D445" s="23"/>
+      <c r="E445" s="22"/>
+      <c r="F445" s="23"/>
+      <c r="G445" s="24"/>
+      <c r="H445" s="23"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="25"/>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
       <c r="E446" s="26" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F446" s="27" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G446" s="26" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H446" s="27"/>
     </row>
-    <row r="447" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="25"/>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
       <c r="E447" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F447" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F447" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G447" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H447" s="27"/>
     </row>
@@ -9449,13 +9456,11 @@
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
       <c r="E448" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F448" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F448" s="27"/>
       <c r="G448" s="26" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H448" s="27"/>
     </row>
@@ -9464,11 +9469,11 @@
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
       <c r="E449" s="26" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F449" s="27"/>
       <c r="G449" s="26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="H449" s="27"/>
     </row>
@@ -9477,11 +9482,13 @@
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
       <c r="E450" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F450" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F450" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G450" s="26" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="H450" s="27"/>
     </row>
@@ -9490,13 +9497,13 @@
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
       <c r="E451" s="26" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="F451" s="27" t="s">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="G451" s="26" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="H451" s="27"/>
     </row>
@@ -9505,65 +9512,67 @@
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
       <c r="E452" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F452" s="27"/>
       <c r="G452" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H452" s="27"/>
     </row>
-    <row r="453" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="25"/>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
       <c r="E453" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F453" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F453" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G453" s="26" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="H453" s="27"/>
     </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="21"/>
-      <c r="C454" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D454" s="23"/>
-      <c r="E454" s="22"/>
-      <c r="F454" s="23"/>
-      <c r="G454" s="24"/>
-      <c r="H454" s="23"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="25"/>
+      <c r="C454" s="25"/>
+      <c r="D454" s="25"/>
+      <c r="E454" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F454" s="27"/>
+      <c r="G454" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H454" s="27"/>
+    </row>
+    <row r="455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="25"/>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
       <c r="E455" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F455" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F455" s="27"/>
       <c r="G455" s="26" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H455" s="27"/>
     </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="25"/>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
       <c r="E456" s="26" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="F456" s="27" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="G456" s="26" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H456" s="27"/>
     </row>
@@ -9572,67 +9581,65 @@
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
       <c r="E457" s="26" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F457" s="27"/>
       <c r="G457" s="26" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H457" s="27"/>
     </row>
-    <row r="458" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="25"/>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
       <c r="E458" s="26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F458" s="27"/>
       <c r="G458" s="26" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="H458" s="27"/>
     </row>
-    <row r="459" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="25"/>
-      <c r="C459" s="25"/>
-      <c r="D459" s="25"/>
-      <c r="E459" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F459" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G459" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H459" s="27"/>
-    </row>
-    <row r="460" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="21"/>
+      <c r="C459" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D459" s="23"/>
+      <c r="E459" s="22"/>
+      <c r="F459" s="23"/>
+      <c r="G459" s="24"/>
+      <c r="H459" s="23"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="25"/>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
       <c r="E460" s="26" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F460" s="27" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G460" s="26" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H460" s="27"/>
     </row>
-    <row r="461" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="25"/>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
       <c r="E461" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F461" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F461" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G461" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H461" s="27"/>
     </row>
@@ -9641,13 +9648,11 @@
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
       <c r="E462" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F462" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F462" s="27"/>
       <c r="G462" s="26" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H462" s="27"/>
     </row>
@@ -9656,11 +9661,11 @@
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
       <c r="E463" s="26" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F463" s="27"/>
       <c r="G463" s="26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="H463" s="27"/>
     </row>
@@ -9669,11 +9674,13 @@
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
       <c r="E464" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F464" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F464" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G464" s="26" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="H464" s="27"/>
     </row>
@@ -9682,13 +9689,13 @@
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
       <c r="E465" s="26" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="F465" s="27" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="G465" s="26" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="H465" s="27"/>
     </row>
@@ -9697,65 +9704,67 @@
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
       <c r="E466" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F466" s="27"/>
       <c r="G466" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H466" s="27"/>
     </row>
-    <row r="467" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="25"/>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
       <c r="E467" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F467" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F467" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G467" s="26" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="H467" s="27"/>
     </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B468" s="21"/>
-      <c r="C468" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D468" s="23"/>
-      <c r="E468" s="22"/>
-      <c r="F468" s="23"/>
-      <c r="G468" s="24"/>
-      <c r="H468" s="23"/>
-    </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="25"/>
+      <c r="C468" s="25"/>
+      <c r="D468" s="25"/>
+      <c r="E468" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F468" s="27"/>
+      <c r="G468" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H468" s="27"/>
+    </row>
+    <row r="469" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="25"/>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
       <c r="E469" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F469" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F469" s="27"/>
       <c r="G469" s="26" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H469" s="27"/>
     </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="25"/>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
       <c r="E470" s="26" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="F470" s="27" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="G470" s="26" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H470" s="27"/>
     </row>
@@ -9764,67 +9773,65 @@
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
       <c r="E471" s="26" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F471" s="27"/>
       <c r="G471" s="26" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H471" s="27"/>
     </row>
-    <row r="472" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="25"/>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
       <c r="E472" s="26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F472" s="27"/>
       <c r="G472" s="26" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="H472" s="27"/>
     </row>
-    <row r="473" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="25"/>
-      <c r="C473" s="25"/>
-      <c r="D473" s="25"/>
-      <c r="E473" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F473" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G473" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H473" s="27"/>
-    </row>
-    <row r="474" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="21"/>
+      <c r="C473" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D473" s="23"/>
+      <c r="E473" s="22"/>
+      <c r="F473" s="23"/>
+      <c r="G473" s="24"/>
+      <c r="H473" s="23"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="25"/>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
       <c r="E474" s="26" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F474" s="27" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G474" s="26" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H474" s="27"/>
     </row>
-    <row r="475" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="25"/>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
       <c r="E475" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F475" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F475" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G475" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H475" s="27"/>
     </row>
@@ -9833,13 +9840,11 @@
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
       <c r="E476" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F476" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F476" s="27"/>
       <c r="G476" s="26" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H476" s="27"/>
     </row>
@@ -9848,11 +9853,11 @@
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
       <c r="E477" s="26" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F477" s="27"/>
       <c r="G477" s="26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="H477" s="27"/>
     </row>
@@ -9861,11 +9866,13 @@
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
       <c r="E478" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F478" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F478" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G478" s="26" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="H478" s="27"/>
     </row>
@@ -9874,13 +9881,13 @@
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
       <c r="E479" s="26" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="F479" s="27" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="G479" s="26" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="H479" s="27"/>
     </row>
@@ -9889,65 +9896,67 @@
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
       <c r="E480" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F480" s="27"/>
       <c r="G480" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H480" s="27"/>
     </row>
-    <row r="481" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="25"/>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
       <c r="E481" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F481" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F481" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G481" s="26" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="H481" s="27"/>
     </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="21"/>
-      <c r="C482" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D482" s="23"/>
-      <c r="E482" s="22"/>
-      <c r="F482" s="23"/>
-      <c r="G482" s="24"/>
-      <c r="H482" s="23"/>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="25"/>
+      <c r="C482" s="25"/>
+      <c r="D482" s="25"/>
+      <c r="E482" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F482" s="27"/>
+      <c r="G482" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H482" s="27"/>
+    </row>
+    <row r="483" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="25"/>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F483" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F483" s="27"/>
       <c r="G483" s="26" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H483" s="27"/>
     </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="25"/>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
       <c r="E484" s="26" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="F484" s="27" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="G484" s="26" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H484" s="27"/>
     </row>
@@ -9956,67 +9965,65 @@
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
       <c r="E485" s="26" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F485" s="27"/>
       <c r="G485" s="26" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H485" s="27"/>
     </row>
-    <row r="486" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="25"/>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
       <c r="E486" s="26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F486" s="27"/>
       <c r="G486" s="26" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="H486" s="27"/>
     </row>
-    <row r="487" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="25"/>
-      <c r="C487" s="25"/>
-      <c r="D487" s="25"/>
-      <c r="E487" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F487" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G487" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H487" s="27"/>
-    </row>
-    <row r="488" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="21"/>
+      <c r="C487" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D487" s="23"/>
+      <c r="E487" s="22"/>
+      <c r="F487" s="23"/>
+      <c r="G487" s="24"/>
+      <c r="H487" s="23"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="25"/>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
       <c r="E488" s="26" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F488" s="27" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G488" s="26" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H488" s="27"/>
     </row>
-    <row r="489" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="25"/>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
       <c r="E489" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F489" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F489" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G489" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H489" s="27"/>
     </row>
@@ -10025,13 +10032,11 @@
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
       <c r="E490" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F490" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F490" s="27"/>
       <c r="G490" s="26" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H490" s="27"/>
     </row>
@@ -10040,11 +10045,11 @@
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
       <c r="E491" s="26" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F491" s="27"/>
       <c r="G491" s="26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="H491" s="27"/>
     </row>
@@ -10053,11 +10058,13 @@
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
       <c r="E492" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F492" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F492" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G492" s="26" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="H492" s="27"/>
     </row>
@@ -10066,13 +10073,13 @@
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
       <c r="E493" s="26" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="F493" s="27" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="G493" s="26" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="H493" s="27"/>
     </row>
@@ -10081,65 +10088,67 @@
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
       <c r="E494" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F494" s="27"/>
       <c r="G494" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H494" s="27"/>
     </row>
-    <row r="495" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="25"/>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
       <c r="E495" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F495" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F495" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G495" s="26" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="H495" s="27"/>
     </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="21"/>
-      <c r="C496" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D496" s="23"/>
-      <c r="E496" s="22"/>
-      <c r="F496" s="23"/>
-      <c r="G496" s="24"/>
-      <c r="H496" s="23"/>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="25"/>
+      <c r="C496" s="25"/>
+      <c r="D496" s="25"/>
+      <c r="E496" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F496" s="27"/>
+      <c r="G496" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H496" s="27"/>
+    </row>
+    <row r="497" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="25"/>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
       <c r="E497" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F497" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F497" s="27"/>
       <c r="G497" s="26" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H497" s="27"/>
     </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="25"/>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
       <c r="E498" s="26" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="F498" s="27" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="G498" s="26" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H498" s="27"/>
     </row>
@@ -10148,67 +10157,65 @@
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
       <c r="E499" s="26" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F499" s="27"/>
       <c r="G499" s="26" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H499" s="27"/>
     </row>
-    <row r="500" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="25"/>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
       <c r="E500" s="26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F500" s="27"/>
       <c r="G500" s="26" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="H500" s="27"/>
     </row>
-    <row r="501" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="25"/>
-      <c r="C501" s="25"/>
-      <c r="D501" s="25"/>
-      <c r="E501" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F501" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G501" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H501" s="27"/>
-    </row>
-    <row r="502" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="21"/>
+      <c r="C501" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D501" s="23"/>
+      <c r="E501" s="22"/>
+      <c r="F501" s="23"/>
+      <c r="G501" s="24"/>
+      <c r="H501" s="23"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="25"/>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
       <c r="E502" s="26" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F502" s="27" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G502" s="26" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H502" s="27"/>
     </row>
-    <row r="503" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="25"/>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
       <c r="E503" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F503" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="F503" s="27" t="s">
+        <v>168</v>
+      </c>
       <c r="G503" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H503" s="27"/>
     </row>
@@ -10217,13 +10224,11 @@
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
       <c r="E504" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F504" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F504" s="27"/>
       <c r="G504" s="26" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H504" s="27"/>
     </row>
@@ -10232,11 +10237,11 @@
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
       <c r="E505" s="26" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F505" s="27"/>
       <c r="G505" s="26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="H505" s="27"/>
     </row>
@@ -10245,11 +10250,13 @@
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
       <c r="E506" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F506" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="F506" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G506" s="26" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="H506" s="27"/>
     </row>
@@ -10258,13 +10265,13 @@
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
       <c r="E507" s="26" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="F507" s="27" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="G507" s="26" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="H507" s="27"/>
     </row>
@@ -10273,65 +10280,67 @@
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
       <c r="E508" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F508" s="27"/>
       <c r="G508" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H508" s="27"/>
     </row>
-    <row r="509" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="25"/>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
       <c r="E509" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F509" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="F509" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="G509" s="26" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="H509" s="27"/>
     </row>
-    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="21"/>
-      <c r="C510" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D510" s="23"/>
-      <c r="E510" s="22"/>
-      <c r="F510" s="23"/>
-      <c r="G510" s="24"/>
-      <c r="H510" s="23"/>
-    </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="25"/>
+      <c r="C510" s="25"/>
+      <c r="D510" s="25"/>
+      <c r="E510" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F510" s="27"/>
+      <c r="G510" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H510" s="27"/>
+    </row>
+    <row r="511" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="25"/>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
       <c r="E511" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F511" s="27" t="s">
-        <v>165</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F511" s="27"/>
       <c r="G511" s="26" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H511" s="27"/>
     </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="25"/>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
       <c r="E512" s="26" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="F512" s="27" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="G512" s="26" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H512" s="27"/>
     </row>
@@ -10340,154 +10349,29 @@
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
       <c r="E513" s="26" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F513" s="27"/>
       <c r="G513" s="26" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H513" s="27"/>
     </row>
-    <row r="514" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="25"/>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
       <c r="E514" s="26" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F514" s="27"/>
       <c r="G514" s="26" t="s">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="H514" s="27"/>
     </row>
-    <row r="515" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="25"/>
-      <c r="C515" s="25"/>
-      <c r="D515" s="25"/>
-      <c r="E515" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F515" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G515" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H515" s="27"/>
-    </row>
-    <row r="516" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="25"/>
-      <c r="C516" s="25"/>
-      <c r="D516" s="25"/>
-      <c r="E516" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F516" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G516" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H516" s="27"/>
-    </row>
-    <row r="517" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="25"/>
-      <c r="C517" s="25"/>
-      <c r="D517" s="25"/>
-      <c r="E517" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F517" s="27"/>
-      <c r="G517" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H517" s="27"/>
-    </row>
-    <row r="518" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="25"/>
-      <c r="C518" s="25"/>
-      <c r="D518" s="25"/>
-      <c r="E518" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F518" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="G518" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="H518" s="27"/>
-    </row>
-    <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="25"/>
-      <c r="C519" s="25"/>
-      <c r="D519" s="25"/>
-      <c r="E519" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F519" s="27"/>
-      <c r="G519" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="H519" s="27"/>
-    </row>
-    <row r="520" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="25"/>
-      <c r="C520" s="25"/>
-      <c r="D520" s="25"/>
-      <c r="E520" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F520" s="27"/>
-      <c r="G520" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H520" s="27"/>
-    </row>
-    <row r="521" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="25"/>
-      <c r="C521" s="25"/>
-      <c r="D521" s="25"/>
-      <c r="E521" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F521" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="G521" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="H521" s="27"/>
-    </row>
-    <row r="522" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="25"/>
-      <c r="C522" s="25"/>
-      <c r="D522" s="25"/>
-      <c r="E522" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F522" s="27"/>
-      <c r="G522" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="H522" s="27"/>
-    </row>
-    <row r="523" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="25"/>
-      <c r="C523" s="25"/>
-      <c r="D523" s="25"/>
-      <c r="E523" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F523" s="27"/>
-      <c r="G523" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="H523" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="45">
     <mergeCell ref="A2:A44"/>
     <mergeCell ref="B3:D11"/>
     <mergeCell ref="B13:D42"/>
@@ -10525,15 +10409,14 @@
     <mergeCell ref="B356:D370"/>
     <mergeCell ref="B372:D386"/>
     <mergeCell ref="B388:D402"/>
-    <mergeCell ref="B404:D414"/>
-    <mergeCell ref="B416:D426"/>
-    <mergeCell ref="B428:D439"/>
-    <mergeCell ref="B441:D453"/>
-    <mergeCell ref="B455:D467"/>
-    <mergeCell ref="B469:D481"/>
-    <mergeCell ref="B483:D495"/>
-    <mergeCell ref="B497:D509"/>
-    <mergeCell ref="B511:D523"/>
+    <mergeCell ref="B404:D417"/>
+    <mergeCell ref="B419:D430"/>
+    <mergeCell ref="B432:D444"/>
+    <mergeCell ref="B446:D458"/>
+    <mergeCell ref="B460:D472"/>
+    <mergeCell ref="B474:D486"/>
+    <mergeCell ref="B488:D500"/>
+    <mergeCell ref="B502:D514"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" display="email = imeprezime@domen.com"/>
